--- a/REGULAR/LEPARDO, ROWENA.xlsx
+++ b/REGULAR/LEPARDO, ROWENA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282DE77A-1ED1-4685-8485-6A59CB89E350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9793C3-FA82-4320-A115-C4FF48FE5BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="514">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2380,7 +2380,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K705" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K706" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2709,12 +2709,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K705"/>
+  <dimension ref="A2:K706"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A512" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A516" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="K522" sqref="K522"/>
+      <selection pane="bottomLeft" activeCell="B523" sqref="B523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2879,7 +2879,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>42.463000000000086</v>
+        <v>43.713000000000086</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2889,7 +2889,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>96.371999999999986</v>
+        <v>97.621999999999986</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -14416,13 +14416,15 @@
       <c r="B521" s="20" t="s">
         <v>206</v>
       </c>
-      <c r="C521" s="13"/>
+      <c r="C521" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D521" s="39"/>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G521" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
@@ -14432,10 +14434,10 @@
       </c>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A522" s="41">
-        <v>45017</v>
-      </c>
-      <c r="B522" s="20"/>
+      <c r="A522" s="41"/>
+      <c r="B522" s="20" t="s">
+        <v>512</v>
+      </c>
       <c r="C522" s="13"/>
       <c r="D522" s="39"/>
       <c r="E522" s="9"/>
@@ -14447,11 +14449,13 @@
       <c r="H522" s="39"/>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
-      <c r="K522" s="20"/>
+      <c r="K522" s="50">
+        <v>44991</v>
+      </c>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="41">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -14469,7 +14473,7 @@
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="41">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -14487,7 +14491,7 @@
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="41">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -14505,7 +14509,7 @@
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="41">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -14523,7 +14527,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="41">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -14541,7 +14545,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="41">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14559,7 +14563,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="41">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -14577,7 +14581,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="41">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -14595,7 +14599,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="41">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -14613,7 +14617,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="41">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -14631,7 +14635,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="41">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14649,7 +14653,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="41">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -14667,7 +14671,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="41">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14685,7 +14689,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="41">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14703,7 +14707,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="41">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14721,7 +14725,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="41">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14739,7 +14743,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="41">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14757,7 +14761,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="41">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14775,7 +14779,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="41">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14793,7 +14797,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="41">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14811,7 +14815,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="41">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14829,7 +14833,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="41">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14847,7 +14851,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="41">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14865,7 +14869,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="41">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14883,7 +14887,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="41">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14901,7 +14905,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="41">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14919,7 +14923,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="41">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14937,7 +14941,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="41">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14955,7 +14959,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="41">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14973,7 +14977,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="41">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -14991,7 +14995,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="41">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15009,7 +15013,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="41">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15027,7 +15031,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="41">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15045,7 +15049,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="41">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15063,7 +15067,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="41">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15081,7 +15085,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="41">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15099,7 +15103,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="41">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15117,7 +15121,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="41">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15135,7 +15139,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="41">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15153,7 +15157,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="41">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15171,7 +15175,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="41">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15189,7 +15193,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="41">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15207,7 +15211,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="41">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15225,7 +15229,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="41">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15243,7 +15247,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="41">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15261,7 +15265,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="41">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15279,7 +15283,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="41">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15297,7 +15301,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="41">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15315,7 +15319,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="41">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15333,7 +15337,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="41">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15351,7 +15355,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="41">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15369,7 +15373,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="41">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15387,7 +15391,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="41">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15405,7 +15409,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="41">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15423,7 +15427,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="41">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15441,7 +15445,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="41">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15459,7 +15463,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="41">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15477,7 +15481,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="41">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15495,7 +15499,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="41">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15513,7 +15517,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="41">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15531,7 +15535,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="41">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15549,7 +15553,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="41">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15567,7 +15571,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="41">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15585,7 +15589,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="41">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15603,7 +15607,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="41">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15621,7 +15625,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="41">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15639,7 +15643,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="41">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15657,7 +15661,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="41">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15675,7 +15679,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="41">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15693,7 +15697,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="41">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15711,7 +15715,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="41">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15729,7 +15733,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="41">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15747,7 +15751,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="41">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15765,7 +15769,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="41">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15783,7 +15787,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="41">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15801,7 +15805,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="41">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15819,7 +15823,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="41">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15837,7 +15841,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="41">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15855,7 +15859,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="41">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15873,7 +15877,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="41">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15891,7 +15895,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="41">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15909,7 +15913,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="41">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15927,7 +15931,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="41">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15945,7 +15949,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="41">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15963,7 +15967,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="41">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15981,7 +15985,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="41">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15999,7 +16003,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="41">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16017,7 +16021,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="41">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16035,7 +16039,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="41">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16053,7 +16057,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="41">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16071,7 +16075,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="41">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16089,7 +16093,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="41">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16107,7 +16111,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="41">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16125,7 +16129,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="41">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16143,7 +16147,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="41">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16161,7 +16165,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="41">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16179,7 +16183,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="41">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -16197,7 +16201,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="41">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16215,7 +16219,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="41">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16233,7 +16237,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="41">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -16251,7 +16255,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="41">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -16269,7 +16273,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="41">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -16287,7 +16291,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="41">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -16305,7 +16309,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="41">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -16323,7 +16327,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="41">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -16341,7 +16345,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="41">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -16359,7 +16363,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="41">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -16377,7 +16381,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="41">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -16395,7 +16399,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="41">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -16413,7 +16417,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="41">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -16431,7 +16435,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="41">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -16449,7 +16453,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="41">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -16467,7 +16471,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="41">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -16485,7 +16489,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="41">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -16503,7 +16507,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="41">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -16521,7 +16525,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="41">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16539,7 +16543,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="41">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16557,7 +16561,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="41">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16575,7 +16579,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="41">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16593,7 +16597,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="41">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16611,7 +16615,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="41">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16629,7 +16633,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="41">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16647,7 +16651,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="41">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16665,7 +16669,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="41">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16683,7 +16687,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="41">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16701,7 +16705,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="41">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16719,7 +16723,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="41">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -16737,7 +16741,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="41">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -16755,7 +16759,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="41">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -16773,7 +16777,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="41">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -16791,7 +16795,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="41">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16809,7 +16813,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="41">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16827,7 +16831,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="41">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16845,7 +16849,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="41">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16863,7 +16867,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="41">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16881,7 +16885,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="41">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16899,7 +16903,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="41">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -16917,7 +16921,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="41">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -16935,7 +16939,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="41">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -16953,7 +16957,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="41">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -16971,7 +16975,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="41">
-        <v>49310</v>
+        <v>49279</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -16989,7 +16993,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="41">
-        <v>49341</v>
+        <v>49310</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17007,7 +17011,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="41">
-        <v>49369</v>
+        <v>49341</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17025,7 +17029,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="41">
-        <v>49400</v>
+        <v>49369</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17043,7 +17047,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="41">
-        <v>49430</v>
+        <v>49400</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17061,7 +17065,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="41">
-        <v>49461</v>
+        <v>49430</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17079,7 +17083,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="41">
-        <v>49491</v>
+        <v>49461</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17097,7 +17101,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="41">
-        <v>49522</v>
+        <v>49491</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17115,7 +17119,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="41">
-        <v>49553</v>
+        <v>49522</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17133,7 +17137,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="41">
-        <v>49583</v>
+        <v>49553</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17151,7 +17155,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="41">
-        <v>49614</v>
+        <v>49583</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17169,7 +17173,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="41">
-        <v>49644</v>
+        <v>49614</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17187,7 +17191,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="41">
-        <v>49675</v>
+        <v>49644</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17205,7 +17209,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="41">
-        <v>49706</v>
+        <v>49675</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17223,7 +17227,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="41">
-        <v>49735</v>
+        <v>49706</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17241,7 +17245,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="41">
-        <v>49766</v>
+        <v>49735</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17259,7 +17263,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="41">
-        <v>49796</v>
+        <v>49766</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17277,7 +17281,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="41">
-        <v>49827</v>
+        <v>49796</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17295,7 +17299,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="41">
-        <v>49857</v>
+        <v>49827</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17313,7 +17317,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="41">
-        <v>49888</v>
+        <v>49857</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17331,7 +17335,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="41">
-        <v>49919</v>
+        <v>49888</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17349,7 +17353,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="41">
-        <v>49949</v>
+        <v>49919</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17367,7 +17371,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="41">
-        <v>49980</v>
+        <v>49949</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17385,7 +17389,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="41">
-        <v>50010</v>
+        <v>49980</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17403,7 +17407,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="41">
-        <v>50041</v>
+        <v>50010</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17421,7 +17425,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="41">
-        <v>50072</v>
+        <v>50041</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17439,7 +17443,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="41">
-        <v>50100</v>
+        <v>50072</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17457,7 +17461,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="41">
-        <v>50131</v>
+        <v>50100</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17475,7 +17479,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="41">
-        <v>50161</v>
+        <v>50131</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17493,7 +17497,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="41">
-        <v>50192</v>
+        <v>50161</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17511,7 +17515,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="41">
-        <v>50222</v>
+        <v>50192</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17529,7 +17533,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="41">
-        <v>50253</v>
+        <v>50222</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17547,7 +17551,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="41">
-        <v>50284</v>
+        <v>50253</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17565,7 +17569,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="41">
-        <v>50314</v>
+        <v>50284</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17583,7 +17587,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="41">
-        <v>50345</v>
+        <v>50314</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17601,7 +17605,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="41">
-        <v>50375</v>
+        <v>50345</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17619,7 +17623,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="41">
-        <v>50406</v>
+        <v>50375</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17637,7 +17641,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="41">
-        <v>50437</v>
+        <v>50406</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17655,7 +17659,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="41">
-        <v>50465</v>
+        <v>50437</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17673,7 +17677,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="41">
-        <v>50496</v>
+        <v>50465</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -17691,7 +17695,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="41">
-        <v>50526</v>
+        <v>50496</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -17709,7 +17713,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="41">
-        <v>50557</v>
+        <v>50526</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -17727,7 +17731,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="41">
-        <v>50587</v>
+        <v>50557</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -17742,6 +17746,24 @@
       <c r="I705" s="9"/>
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
+    </row>
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A706" s="41">
+        <v>50587</v>
+      </c>
+      <c r="B706" s="20"/>
+      <c r="C706" s="13"/>
+      <c r="D706" s="39"/>
+      <c r="E706" s="9"/>
+      <c r="F706" s="20"/>
+      <c r="G706" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H706" s="39"/>
+      <c r="I706" s="9"/>
+      <c r="J706" s="11"/>
+      <c r="K706" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/LEPARDO, ROWENA.xlsx
+++ b/REGULAR/LEPARDO, ROWENA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9793C3-FA82-4320-A115-C4FF48FE5BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="514">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1681,7 +1680,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2334,7 +2333,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2380,25 +2378,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K706" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K706" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2705,34 +2703,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K706"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A516" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A516" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="B523" sqref="B523"/>
+      <selection pane="bottomLeft" activeCell="C523" sqref="C523"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2753,7 +2751,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2775,7 +2773,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2797,7 +2795,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2805,7 +2803,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2818,7 +2816,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2835,7 +2833,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2870,7 +2868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2879,7 +2877,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>43.713000000000086</v>
+        <v>44.963000000000086</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2889,12 +2887,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>97.621999999999986</v>
+        <v>98.871999999999986</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>61</v>
       </c>
@@ -2916,7 +2914,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36281</v>
       </c>
@@ -2942,7 +2940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
@@ -2964,7 +2962,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>46</v>
@@ -2984,7 +2982,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36312</v>
       </c>
@@ -3008,7 +3006,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>36342</v>
       </c>
@@ -3032,7 +3030,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36373</v>
       </c>
@@ -3056,7 +3054,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36404</v>
       </c>
@@ -3080,7 +3078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>499</v>
@@ -3102,7 +3100,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36434</v>
       </c>
@@ -3126,7 +3124,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>51</v>
@@ -3148,7 +3146,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36465</v>
       </c>
@@ -3172,7 +3170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>52</v>
@@ -3194,7 +3192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>53</v>
@@ -3216,7 +3214,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36495</v>
       </c>
@@ -3240,7 +3238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>62</v>
       </c>
@@ -3258,7 +3256,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36526</v>
       </c>
@@ -3278,7 +3276,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36557</v>
       </c>
@@ -3302,7 +3300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>65</v>
@@ -3324,7 +3322,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36586</v>
       </c>
@@ -3348,7 +3346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>52</v>
@@ -3370,7 +3368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>66</v>
@@ -3392,7 +3390,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36617</v>
       </c>
@@ -3416,7 +3414,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36647</v>
       </c>
@@ -3440,7 +3438,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>53</v>
@@ -3464,7 +3462,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36678</v>
       </c>
@@ -3488,7 +3486,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>50</v>
@@ -3512,7 +3510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36708</v>
       </c>
@@ -3538,7 +3536,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36739</v>
       </c>
@@ -3564,7 +3562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36770</v>
       </c>
@@ -3586,7 +3584,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36800</v>
       </c>
@@ -3610,7 +3608,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36831</v>
       </c>
@@ -3634,7 +3632,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>80</v>
@@ -3656,7 +3654,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36861</v>
       </c>
@@ -3680,7 +3678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>83</v>
@@ -3702,7 +3700,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>84</v>
       </c>
@@ -3720,7 +3718,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36892</v>
       </c>
@@ -3746,7 +3744,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>86</v>
@@ -3766,7 +3764,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>87</v>
@@ -3786,7 +3784,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36923</v>
       </c>
@@ -3810,7 +3808,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>500</v>
@@ -3834,7 +3832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>50</v>
@@ -3856,7 +3854,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>206</v>
@@ -3876,7 +3874,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36951</v>
       </c>
@@ -3902,7 +3900,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>94</v>
@@ -3926,7 +3924,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36982</v>
       </c>
@@ -3948,7 +3946,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37012</v>
       </c>
@@ -3972,7 +3970,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>52</v>
@@ -3994,7 +3992,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>99</v>
@@ -4016,7 +4014,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
@@ -4040,7 +4038,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37043</v>
       </c>
@@ -4060,7 +4058,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37073</v>
       </c>
@@ -4084,7 +4082,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -4102,7 +4100,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>40756</v>
       </c>
@@ -4126,7 +4124,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37135</v>
       </c>
@@ -4150,7 +4148,7 @@
         <v>37234</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>107</v>
@@ -4174,7 +4172,7 @@
         <v>37236</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>40817</v>
       </c>
@@ -4198,7 +4196,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37196</v>
       </c>
@@ -4222,7 +4220,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>114</v>
@@ -4244,7 +4242,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37226</v>
       </c>
@@ -4268,7 +4266,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>78</v>
@@ -4288,7 +4286,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>111</v>
       </c>
@@ -4308,7 +4306,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37257</v>
       </c>
@@ -4334,7 +4332,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>112</v>
@@ -4358,7 +4356,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37288</v>
       </c>
@@ -4382,7 +4380,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37316</v>
       </c>
@@ -4406,7 +4404,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37347</v>
       </c>
@@ -4430,7 +4428,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37377</v>
       </c>
@@ -4454,7 +4452,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>504</v>
@@ -4476,7 +4474,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37408</v>
       </c>
@@ -4496,7 +4494,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37438</v>
       </c>
@@ -4520,7 +4518,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37469</v>
       </c>
@@ -4544,7 +4542,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37500</v>
       </c>
@@ -4570,7 +4568,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37530</v>
       </c>
@@ -4596,7 +4594,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37561</v>
       </c>
@@ -4616,7 +4614,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37591</v>
       </c>
@@ -4642,7 +4640,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>125</v>
@@ -4664,7 +4662,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>125</v>
@@ -4686,7 +4684,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>129</v>
       </c>
@@ -4704,7 +4702,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37622</v>
       </c>
@@ -4724,7 +4722,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37653</v>
       </c>
@@ -4748,7 +4746,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>131</v>
@@ -4772,7 +4770,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37681</v>
       </c>
@@ -4796,7 +4794,7 @@
         <v>37958</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>141</v>
@@ -4818,7 +4816,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>52</v>
@@ -4840,7 +4838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>505</v>
@@ -4862,7 +4860,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37712</v>
       </c>
@@ -4886,7 +4884,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37742</v>
       </c>
@@ -4910,7 +4908,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>99</v>
@@ -4932,7 +4930,7 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>506</v>
@@ -4954,7 +4952,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>507</v>
@@ -4974,7 +4972,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>137</v>
@@ -4998,7 +4996,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37773</v>
       </c>
@@ -5024,7 +5022,7 @@
         <v>37931</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37803</v>
       </c>
@@ -5048,7 +5046,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>508</v>
@@ -5070,7 +5068,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37834</v>
       </c>
@@ -5094,7 +5092,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>143</v>
@@ -5120,7 +5118,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37865</v>
       </c>
@@ -5144,7 +5142,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>146</v>
@@ -5166,7 +5164,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37895</v>
       </c>
@@ -5190,7 +5188,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>146</v>
@@ -5212,7 +5210,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37926</v>
       </c>
@@ -5236,7 +5234,7 @@
         <v>37966</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>125</v>
@@ -5258,7 +5256,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>151</v>
@@ -5280,7 +5278,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37956</v>
       </c>
@@ -5304,7 +5302,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>152</v>
@@ -5326,7 +5324,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>154</v>
       </c>
@@ -5344,7 +5342,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37987</v>
       </c>
@@ -5362,7 +5360,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>155</v>
@@ -5384,7 +5382,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>52</v>
@@ -5406,7 +5404,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>158</v>
@@ -5430,7 +5428,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="49"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38018</v>
       </c>
@@ -5454,7 +5452,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>38047</v>
       </c>
@@ -5478,7 +5476,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
@@ -5500,7 +5498,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>163</v>
@@ -5522,7 +5520,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38078</v>
       </c>
@@ -5548,7 +5546,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38108</v>
       </c>
@@ -5568,7 +5566,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>131</v>
@@ -5594,7 +5592,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41">
         <v>38139</v>
       </c>
@@ -5618,7 +5616,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>169</v>
@@ -5640,7 +5638,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38169</v>
       </c>
@@ -5664,7 +5662,7 @@
         <v>38175</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>125</v>
@@ -5686,7 +5684,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>125</v>
@@ -5708,7 +5706,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>125</v>
@@ -5730,7 +5728,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>171</v>
@@ -5752,7 +5750,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5772,7 +5770,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38200</v>
       </c>
@@ -5792,7 +5790,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38231</v>
       </c>
@@ -5812,7 +5810,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38261</v>
       </c>
@@ -5832,7 +5830,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
         <v>38292</v>
       </c>
@@ -5858,7 +5856,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38322</v>
       </c>
@@ -5886,7 +5884,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5904,7 +5902,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>179</v>
       </c>
@@ -5922,7 +5920,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>38353</v>
       </c>
@@ -5942,7 +5940,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>38384</v>
       </c>
@@ -5962,7 +5960,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>38412</v>
       </c>
@@ -5982,7 +5980,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38443</v>
       </c>
@@ -6004,7 +6002,7 @@
         <v>38690</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>180</v>
@@ -6026,7 +6024,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38473</v>
       </c>
@@ -6050,7 +6048,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>184</v>
@@ -6072,7 +6070,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38504</v>
       </c>
@@ -6096,7 +6094,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41"/>
       <c r="B151" s="15" t="s">
         <v>186</v>
@@ -6122,7 +6120,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38534</v>
       </c>
@@ -6150,7 +6148,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38565</v>
       </c>
@@ -6174,7 +6172,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>191</v>
@@ -6198,7 +6196,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38596</v>
       </c>
@@ -6226,7 +6224,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>194</v>
@@ -6248,7 +6246,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6268,7 +6266,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38626</v>
       </c>
@@ -6294,7 +6292,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38657</v>
       </c>
@@ -6320,7 +6318,7 @@
         <v>38667</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38687</v>
       </c>
@@ -6342,7 +6340,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41"/>
       <c r="B161" s="15" t="s">
         <v>199</v>
@@ -6362,7 +6360,7 @@
       <c r="J161" s="12"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>199</v>
@@ -6388,7 +6386,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="s">
         <v>201</v>
       </c>
@@ -6406,7 +6404,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38718</v>
       </c>
@@ -6432,7 +6430,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>130</v>
@@ -6456,7 +6454,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38749</v>
       </c>
@@ -6478,7 +6476,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>180</v>
@@ -6500,7 +6498,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38777</v>
       </c>
@@ -6524,7 +6522,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38808</v>
       </c>
@@ -6548,7 +6546,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>52</v>
@@ -6570,7 +6568,7 @@
         <v>39026</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38838</v>
       </c>
@@ -6596,7 +6594,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>38869</v>
       </c>
@@ -6622,7 +6620,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>212</v>
@@ -6644,7 +6642,7 @@
         <v>38236</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>38899</v>
       </c>
@@ -6668,7 +6666,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41"/>
       <c r="B175" s="15" t="s">
         <v>215</v>
@@ -6694,7 +6692,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38930</v>
       </c>
@@ -6722,7 +6720,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38961</v>
       </c>
@@ -6742,7 +6740,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>38991</v>
       </c>
@@ -6762,7 +6760,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39022</v>
       </c>
@@ -6782,7 +6780,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>39052</v>
       </c>
@@ -6802,7 +6800,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="48" t="s">
         <v>220</v>
       </c>
@@ -6820,7 +6818,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39083</v>
       </c>
@@ -6842,7 +6840,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>125</v>
@@ -6866,7 +6864,7 @@
         <v>39387</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39114</v>
       </c>
@@ -6886,7 +6884,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13">
@@ -6908,7 +6906,7 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39142</v>
       </c>
@@ -6928,7 +6926,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>39173</v>
       </c>
@@ -6952,7 +6950,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>224</v>
@@ -6976,7 +6974,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39203</v>
       </c>
@@ -7002,7 +7000,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="41"/>
       <c r="B190" s="15" t="s">
         <v>226</v>
@@ -7026,7 +7024,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39234</v>
       </c>
@@ -7052,7 +7050,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39264</v>
       </c>
@@ -7074,7 +7072,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>231</v>
@@ -7094,7 +7092,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>232</v>
@@ -7118,7 +7116,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>39295</v>
       </c>
@@ -7142,7 +7140,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39326</v>
       </c>
@@ -7170,7 +7168,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39356</v>
       </c>
@@ -7200,7 +7198,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="41">
         <v>39387</v>
       </c>
@@ -7220,7 +7218,7 @@
       <c r="J198" s="12"/>
       <c r="K198" s="15"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>241</v>
@@ -7246,7 +7244,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39417</v>
       </c>
@@ -7266,7 +7264,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="48" t="s">
         <v>243</v>
       </c>
@@ -7284,7 +7282,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>39448</v>
       </c>
@@ -7304,7 +7302,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>39479</v>
       </c>
@@ -7326,7 +7324,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>244</v>
@@ -7346,7 +7344,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>245</v>
@@ -7368,7 +7366,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>39508</v>
       </c>
@@ -7392,7 +7390,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39539</v>
       </c>
@@ -7414,7 +7412,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>245</v>
@@ -7436,7 +7434,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39569</v>
       </c>
@@ -7460,7 +7458,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>251</v>
@@ -7482,7 +7480,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>39600</v>
       </c>
@@ -7506,7 +7504,7 @@
         <v>39484</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>143</v>
@@ -7528,7 +7526,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>253</v>
@@ -7552,7 +7550,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39630</v>
       </c>
@@ -7572,7 +7570,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>255</v>
@@ -7594,7 +7592,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>506</v>
@@ -7616,7 +7614,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>143</v>
@@ -7640,7 +7638,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39661</v>
       </c>
@@ -7664,7 +7662,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>39692</v>
       </c>
@@ -7688,7 +7686,7 @@
         <v>39761</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="41"/>
       <c r="B220" s="15" t="s">
         <v>259</v>
@@ -7710,7 +7708,7 @@
       <c r="J220" s="12"/>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>39722</v>
       </c>
@@ -7734,7 +7732,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>143</v>
@@ -7756,7 +7754,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>39753</v>
       </c>
@@ -7776,7 +7774,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39783</v>
       </c>
@@ -7800,7 +7798,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23" t="s">
         <v>263</v>
       </c>
@@ -7818,7 +7816,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39814</v>
       </c>
@@ -7844,7 +7842,7 @@
         <v>39934</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>264</v>
@@ -7864,7 +7862,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39845</v>
       </c>
@@ -7886,7 +7884,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>39873</v>
       </c>
@@ -7908,7 +7906,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39904</v>
       </c>
@@ -7934,7 +7932,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>39934</v>
       </c>
@@ -7954,7 +7952,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>39965</v>
       </c>
@@ -7974,7 +7972,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>39995</v>
       </c>
@@ -7998,7 +7996,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>232</v>
@@ -8022,7 +8020,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40026</v>
       </c>
@@ -8042,7 +8040,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>40057</v>
       </c>
@@ -8062,7 +8060,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>40087</v>
       </c>
@@ -8088,7 +8086,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>40118</v>
       </c>
@@ -8108,7 +8106,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>40148</v>
       </c>
@@ -8134,7 +8132,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
         <v>275</v>
       </c>
@@ -8152,7 +8150,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>40179</v>
       </c>
@@ -8172,7 +8170,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>40210</v>
       </c>
@@ -8196,7 +8194,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40238</v>
       </c>
@@ -8216,7 +8214,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="41">
         <v>40269</v>
       </c>
@@ -8238,7 +8236,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>277</v>
@@ -8260,7 +8258,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>232</v>
@@ -8282,7 +8280,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>232</v>
@@ -8306,7 +8304,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>40299</v>
       </c>
@@ -8326,7 +8324,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>40330</v>
       </c>
@@ -8352,7 +8350,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>284</v>
@@ -8376,7 +8374,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>40360</v>
       </c>
@@ -8396,7 +8394,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>40391</v>
       </c>
@@ -8420,7 +8418,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>288</v>
@@ -8442,7 +8440,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>40422</v>
       </c>
@@ -8466,7 +8464,7 @@
         <v>40246</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>285</v>
@@ -8488,7 +8486,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>40452</v>
       </c>
@@ -8512,7 +8510,7 @@
         <v>40522</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>289</v>
@@ -8534,7 +8532,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="41">
         <v>40483</v>
       </c>
@@ -8560,7 +8558,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>248</v>
@@ -8582,7 +8580,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40513</v>
       </c>
@@ -8602,7 +8600,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="48" t="s">
         <v>292</v>
       </c>
@@ -8620,7 +8618,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40544</v>
       </c>
@@ -8644,7 +8642,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>40575</v>
       </c>
@@ -8666,7 +8664,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>294</v>
@@ -8688,7 +8686,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>40603</v>
       </c>
@@ -8714,7 +8712,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>297</v>
@@ -8736,7 +8734,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>40634</v>
       </c>
@@ -8760,7 +8758,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>108</v>
@@ -8782,7 +8780,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40664</v>
       </c>
@@ -8806,7 +8804,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13">
@@ -8828,7 +8826,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40695</v>
       </c>
@@ -8848,7 +8846,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40725</v>
       </c>
@@ -8872,7 +8870,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>248</v>
@@ -8894,7 +8892,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="41">
         <v>40756</v>
       </c>
@@ -8918,7 +8916,7 @@
       </c>
       <c r="K274" s="15"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>303</v>
@@ -8944,7 +8942,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13">
@@ -8962,7 +8960,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40787</v>
       </c>
@@ -8982,7 +8980,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>40817</v>
       </c>
@@ -9008,7 +9006,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>40848</v>
       </c>
@@ -9028,7 +9026,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>40878</v>
       </c>
@@ -9054,7 +9052,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="48"/>
       <c r="B281" s="20" t="s">
         <v>307</v>
@@ -9076,7 +9074,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="48" t="s">
         <v>306</v>
       </c>
@@ -9094,7 +9092,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>40909</v>
       </c>
@@ -9116,7 +9114,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>310</v>
@@ -9138,7 +9136,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="41"/>
       <c r="B285" s="15" t="s">
         <v>312</v>
@@ -9162,7 +9160,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>244</v>
@@ -9184,7 +9182,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>40940</v>
       </c>
@@ -9206,7 +9204,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>317</v>
@@ -9230,7 +9228,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>40969</v>
       </c>
@@ -9256,7 +9254,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>318</v>
@@ -9278,7 +9276,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>41000</v>
       </c>
@@ -9298,7 +9296,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>41030</v>
       </c>
@@ -9324,7 +9322,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>41061</v>
       </c>
@@ -9348,7 +9346,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>41091</v>
       </c>
@@ -9372,7 +9370,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>143</v>
@@ -9394,7 +9392,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>41122</v>
       </c>
@@ -9414,7 +9412,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>41153</v>
       </c>
@@ -9440,7 +9438,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>41183</v>
       </c>
@@ -9464,7 +9462,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>41214</v>
       </c>
@@ -9488,7 +9486,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>41244</v>
       </c>
@@ -9512,7 +9510,7 @@
         <v>41072</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>143</v>
@@ -9536,7 +9534,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="48" t="s">
         <v>328</v>
       </c>
@@ -9554,7 +9552,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>41275</v>
       </c>
@@ -9576,7 +9574,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="41"/>
       <c r="B304" s="15" t="s">
         <v>330</v>
@@ -9598,7 +9596,7 @@
       <c r="J304" s="12"/>
       <c r="K304" s="15"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>41306</v>
       </c>
@@ -9620,7 +9618,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>332</v>
@@ -9642,7 +9640,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>41334</v>
       </c>
@@ -9666,7 +9664,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>244</v>
@@ -9686,7 +9684,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>241</v>
@@ -9710,7 +9708,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>333</v>
@@ -9732,7 +9730,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>41365</v>
       </c>
@@ -9752,7 +9750,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>41395</v>
       </c>
@@ -9776,7 +9774,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>241</v>
@@ -9802,7 +9800,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>41426</v>
       </c>
@@ -9828,7 +9826,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>241</v>
@@ -9852,7 +9850,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>231</v>
@@ -9874,7 +9872,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>231</v>
@@ -9896,7 +9894,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>344</v>
@@ -9920,7 +9918,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>41456</v>
       </c>
@@ -9944,7 +9942,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>41487</v>
       </c>
@@ -9968,7 +9966,7 @@
         <v>41313</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>346</v>
@@ -9990,7 +9988,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>41518</v>
       </c>
@@ -10014,7 +10012,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>41548</v>
       </c>
@@ -10038,7 +10036,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>348</v>
@@ -10060,7 +10058,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>349</v>
@@ -10082,7 +10080,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>41579</v>
       </c>
@@ -10104,7 +10102,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>351</v>
@@ -10128,7 +10126,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>41609</v>
       </c>
@@ -10152,7 +10150,7 @@
         <v>41376</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>353</v>
@@ -10176,7 +10174,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="41"/>
       <c r="B330" s="15" t="s">
         <v>354</v>
@@ -10200,7 +10198,7 @@
       <c r="J330" s="12"/>
       <c r="K330" s="15"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="48" t="s">
         <v>356</v>
       </c>
@@ -10218,7 +10216,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>41640</v>
       </c>
@@ -10240,7 +10238,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>277</v>
@@ -10262,7 +10260,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>244</v>
@@ -10282,7 +10280,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>357</v>
@@ -10306,7 +10304,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>41671</v>
       </c>
@@ -10330,7 +10328,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>361</v>
@@ -10352,7 +10350,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>41699</v>
       </c>
@@ -10372,7 +10370,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>364</v>
@@ -10400,7 +10398,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41730</v>
       </c>
@@ -10422,7 +10420,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>307</v>
@@ -10444,7 +10442,7 @@
         <v>41824</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>366</v>
@@ -10468,7 +10466,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>41760</v>
       </c>
@@ -10492,7 +10490,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>369</v>
@@ -10516,7 +10514,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="41"/>
       <c r="B345" s="15" t="s">
         <v>143</v>
@@ -10540,7 +10538,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41791</v>
       </c>
@@ -10566,7 +10564,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>233</v>
@@ -10590,7 +10588,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>41821</v>
       </c>
@@ -10610,7 +10608,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>41852</v>
       </c>
@@ -10636,7 +10634,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>41883</v>
       </c>
@@ -10662,7 +10660,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>232</v>
@@ -10684,7 +10682,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>376</v>
@@ -10706,7 +10704,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>41913</v>
       </c>
@@ -10730,7 +10728,7 @@
         <v>41983</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>143</v>
@@ -10754,7 +10752,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>233</v>
@@ -10778,7 +10776,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="41"/>
       <c r="B356" s="15" t="s">
         <v>380</v>
@@ -10800,7 +10798,7 @@
       <c r="J356" s="12"/>
       <c r="K356" s="15"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>41944</v>
       </c>
@@ -10824,7 +10822,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>381</v>
@@ -10843,7 +10841,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>41974</v>
       </c>
@@ -10863,7 +10861,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>143</v>
@@ -10883,7 +10881,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>382</v>
@@ -10909,7 +10907,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
         <v>385</v>
       </c>
@@ -10927,7 +10925,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>42005</v>
       </c>
@@ -10949,7 +10947,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>386</v>
@@ -10973,7 +10971,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>42036</v>
       </c>
@@ -10995,7 +10993,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>244</v>
@@ -11013,7 +11011,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>388</v>
@@ -11037,7 +11035,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>42064</v>
       </c>
@@ -11061,7 +11059,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>391</v>
@@ -11085,7 +11083,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>42095</v>
       </c>
@@ -11109,7 +11107,7 @@
         <v>42008</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>393</v>
@@ -11131,7 +11129,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>42125</v>
       </c>
@@ -11157,7 +11155,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>143</v>
@@ -11181,7 +11179,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>396</v>
@@ -11203,7 +11201,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>42156</v>
       </c>
@@ -11229,7 +11227,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>42186</v>
       </c>
@@ -11255,7 +11253,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>233</v>
@@ -11279,7 +11277,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>143</v>
@@ -11301,7 +11299,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>110</v>
@@ -11321,7 +11319,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>233</v>
@@ -11339,7 +11337,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>397</v>
@@ -11361,7 +11359,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="41">
         <v>42217</v>
       </c>
@@ -11389,7 +11387,7 @@
         <v>42317</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>42248</v>
       </c>
@@ -11409,7 +11407,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>404</v>
@@ -11431,7 +11429,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>42278</v>
       </c>
@@ -11455,7 +11453,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>405</v>
@@ -11477,7 +11475,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>42309</v>
       </c>
@@ -11501,7 +11499,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>406</v>
@@ -11527,7 +11525,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>407</v>
@@ -11551,7 +11549,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>42339</v>
       </c>
@@ -11577,7 +11575,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="48" t="s">
         <v>411</v>
       </c>
@@ -11595,7 +11593,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>42370</v>
       </c>
@@ -11617,7 +11615,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>390</v>
@@ -11637,7 +11635,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>244</v>
@@ -11657,7 +11655,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>412</v>
@@ -11681,7 +11679,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>42401</v>
       </c>
@@ -11705,7 +11703,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>42430</v>
       </c>
@@ -11731,7 +11729,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>42461</v>
       </c>
@@ -11755,7 +11753,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>233</v>
@@ -11779,7 +11777,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>244</v>
@@ -11799,7 +11797,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>418</v>
@@ -11821,7 +11819,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>42491</v>
       </c>
@@ -11845,7 +11843,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>422</v>
@@ -11869,7 +11867,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>42522</v>
       </c>
@@ -11897,7 +11895,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>422</v>
@@ -11917,7 +11915,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42552</v>
       </c>
@@ -11941,7 +11939,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="41">
         <v>42583</v>
       </c>
@@ -11961,7 +11959,7 @@
       <c r="J407" s="12"/>
       <c r="K407" s="15"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>42614</v>
       </c>
@@ -11985,7 +11983,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>42644</v>
       </c>
@@ -12009,7 +12007,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>232</v>
@@ -12033,7 +12031,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>233</v>
@@ -12055,7 +12053,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>430</v>
@@ -12077,7 +12075,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42675</v>
       </c>
@@ -12101,7 +12099,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>42705</v>
       </c>
@@ -12127,7 +12125,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23" t="s">
         <v>433</v>
       </c>
@@ -12145,7 +12143,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>42736</v>
       </c>
@@ -12165,7 +12163,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>434</v>
@@ -12191,7 +12189,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>42767</v>
       </c>
@@ -12215,7 +12213,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="41">
         <v>42795</v>
       </c>
@@ -12239,7 +12237,7 @@
       <c r="J419" s="12"/>
       <c r="K419" s="15"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>244</v>
@@ -12261,7 +12259,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -12279,7 +12277,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -12297,7 +12295,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>42826</v>
       </c>
@@ -12317,7 +12315,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42856</v>
       </c>
@@ -12341,7 +12339,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>143</v>
@@ -12365,7 +12363,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>42887</v>
       </c>
@@ -12385,7 +12383,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>42917</v>
       </c>
@@ -12411,7 +12409,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>143</v>
@@ -12433,7 +12431,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>42948</v>
       </c>
@@ -12453,7 +12451,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42979</v>
       </c>
@@ -12473,7 +12471,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>43009</v>
       </c>
@@ -12497,7 +12495,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>143</v>
@@ -12521,7 +12519,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>39387</v>
       </c>
@@ -12541,7 +12539,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>43070</v>
       </c>
@@ -12561,7 +12559,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="53" t="s">
         <v>446</v>
       </c>
@@ -12579,7 +12577,7 @@
       <c r="J435" s="12"/>
       <c r="K435" s="15"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>43101</v>
       </c>
@@ -12603,7 +12601,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>43132</v>
       </c>
@@ -12625,7 +12623,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43160</v>
       </c>
@@ -12651,7 +12649,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>43191</v>
       </c>
@@ -12677,7 +12675,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>233</v>
@@ -12699,7 +12697,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>244</v>
@@ -12719,7 +12717,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>454</v>
@@ -12741,7 +12739,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>43221</v>
       </c>
@@ -12761,7 +12759,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>43252</v>
       </c>
@@ -12781,7 +12779,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43282</v>
       </c>
@@ -12807,7 +12805,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43313</v>
       </c>
@@ -12833,7 +12831,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43344</v>
       </c>
@@ -12859,7 +12857,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>43374</v>
       </c>
@@ -12879,7 +12877,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>43405</v>
       </c>
@@ -12899,7 +12897,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43435</v>
       </c>
@@ -12925,7 +12923,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>406</v>
@@ -12947,7 +12945,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
         <v>459</v>
       </c>
@@ -12965,7 +12963,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>43466</v>
       </c>
@@ -12985,7 +12983,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43497</v>
       </c>
@@ -13007,7 +13005,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>143</v>
@@ -13029,7 +13027,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>244</v>
@@ -13051,7 +13049,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43525</v>
       </c>
@@ -13071,7 +13069,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43556</v>
       </c>
@@ -13097,7 +13095,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>462</v>
@@ -13119,7 +13117,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43586</v>
       </c>
@@ -13139,7 +13137,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43617</v>
       </c>
@@ -13163,7 +13161,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>454</v>
@@ -13185,7 +13183,7 @@
         <v>43564</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="41">
         <v>43647</v>
       </c>
@@ -13205,7 +13203,7 @@
       <c r="J463" s="12"/>
       <c r="K463" s="15"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43678</v>
       </c>
@@ -13229,7 +13227,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43709</v>
       </c>
@@ -13253,7 +13251,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>465</v>
@@ -13273,7 +13271,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>465</v>
@@ -13293,7 +13291,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43739</v>
       </c>
@@ -13313,7 +13311,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43770</v>
       </c>
@@ -13337,7 +13335,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13">
@@ -13355,7 +13353,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43800</v>
       </c>
@@ -13375,7 +13373,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
         <v>470</v>
       </c>
@@ -13393,7 +13391,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43831</v>
       </c>
@@ -13413,7 +13411,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43862</v>
       </c>
@@ -13437,7 +13435,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>472</v>
@@ -13457,7 +13455,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>244</v>
@@ -13477,7 +13475,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43891</v>
       </c>
@@ -13497,7 +13495,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="41">
         <v>43922</v>
       </c>
@@ -13517,7 +13515,7 @@
       <c r="J478" s="12"/>
       <c r="K478" s="15"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43952</v>
       </c>
@@ -13537,7 +13535,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43983</v>
       </c>
@@ -13557,7 +13555,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44013</v>
       </c>
@@ -13577,7 +13575,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44044</v>
       </c>
@@ -13597,7 +13595,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44075</v>
       </c>
@@ -13621,7 +13619,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44105</v>
       </c>
@@ -13641,7 +13639,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>44136</v>
       </c>
@@ -13661,7 +13659,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>44166</v>
       </c>
@@ -13687,7 +13685,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23" t="s">
         <v>480</v>
       </c>
@@ -13705,7 +13703,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44197</v>
       </c>
@@ -13729,7 +13727,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44228</v>
       </c>
@@ -13753,7 +13751,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44256</v>
       </c>
@@ -13773,7 +13771,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44287</v>
       </c>
@@ -13793,7 +13791,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="41">
         <v>44317</v>
       </c>
@@ -13813,7 +13811,7 @@
       <c r="J492" s="12"/>
       <c r="K492" s="15"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44348</v>
       </c>
@@ -13837,7 +13835,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44378</v>
       </c>
@@ -13861,7 +13859,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>485</v>
@@ -13879,7 +13877,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44409</v>
       </c>
@@ -13899,7 +13897,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44440</v>
       </c>
@@ -13919,7 +13917,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44470</v>
       </c>
@@ -13939,7 +13937,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44501</v>
       </c>
@@ -13959,7 +13957,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44531</v>
       </c>
@@ -13985,7 +13983,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>244</v>
@@ -14005,7 +14003,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23" t="s">
         <v>490</v>
       </c>
@@ -14023,7 +14021,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44562</v>
       </c>
@@ -14045,7 +14043,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>244</v>
@@ -14065,7 +14063,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>44593</v>
       </c>
@@ -14087,7 +14085,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>44621</v>
       </c>
@@ -14107,7 +14105,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="41">
         <v>44652</v>
       </c>
@@ -14127,7 +14125,7 @@
       <c r="J507" s="12"/>
       <c r="K507" s="15"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44682</v>
       </c>
@@ -14149,7 +14147,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>485</v>
@@ -14171,7 +14169,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44713</v>
       </c>
@@ -14191,7 +14189,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44743</v>
       </c>
@@ -14217,7 +14215,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>495</v>
@@ -14237,7 +14235,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44774</v>
       </c>
@@ -14257,7 +14255,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44805</v>
       </c>
@@ -14277,7 +14275,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44835</v>
       </c>
@@ -14297,7 +14295,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44866</v>
       </c>
@@ -14317,7 +14315,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44896</v>
       </c>
@@ -14343,7 +14341,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="48" t="s">
         <v>510</v>
       </c>
@@ -14361,7 +14359,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44927</v>
       </c>
@@ -14385,7 +14383,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="41">
         <v>44958</v>
       </c>
@@ -14409,7 +14407,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="41">
         <v>44986</v>
       </c>
@@ -14433,7 +14431,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="41"/>
       <c r="B522" s="20" t="s">
         <v>512</v>
@@ -14453,29 +14451,33 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="41">
         <v>45017</v>
       </c>
       <c r="B523" s="20"/>
-      <c r="C523" s="13"/>
+      <c r="C523" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D523" s="39"/>
       <c r="E523" s="9"/>
       <c r="F523" s="20"/>
-      <c r="G523" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G523" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H523" s="39"/>
       <c r="I523" s="9"/>
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="41">
         <v>45047</v>
       </c>
-      <c r="B524" s="20"/>
+      <c r="B524" s="20" t="s">
+        <v>512</v>
+      </c>
       <c r="C524" s="13"/>
       <c r="D524" s="39"/>
       <c r="E524" s="9"/>
@@ -14487,9 +14489,11 @@
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
       <c r="J524" s="11"/>
-      <c r="K524" s="20"/>
-    </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K524" s="50">
+        <v>45061</v>
+      </c>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="41">
         <v>45078</v>
       </c>
@@ -14507,7 +14511,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="41">
         <v>45108</v>
       </c>
@@ -14525,7 +14529,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="41">
         <v>45139</v>
       </c>
@@ -14543,7 +14547,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="41">
         <v>45170</v>
       </c>
@@ -14561,7 +14565,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="41">
         <v>45200</v>
       </c>
@@ -14579,7 +14583,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="41">
         <v>45231</v>
       </c>
@@ -14597,7 +14601,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="41">
         <v>45261</v>
       </c>
@@ -14615,7 +14619,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="41">
         <v>45292</v>
       </c>
@@ -14633,7 +14637,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="41">
         <v>45323</v>
       </c>
@@ -14651,7 +14655,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="41">
         <v>45352</v>
       </c>
@@ -14669,7 +14673,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="41">
         <v>45383</v>
       </c>
@@ -14687,7 +14691,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="41">
         <v>45413</v>
       </c>
@@ -14705,7 +14709,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="41">
         <v>45444</v>
       </c>
@@ -14723,7 +14727,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="41">
         <v>45474</v>
       </c>
@@ -14741,7 +14745,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="41">
         <v>45505</v>
       </c>
@@ -14759,7 +14763,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="41">
         <v>45536</v>
       </c>
@@ -14777,7 +14781,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="41">
         <v>45566</v>
       </c>
@@ -14795,7 +14799,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="41">
         <v>45597</v>
       </c>
@@ -14813,7 +14817,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="41">
         <v>45627</v>
       </c>
@@ -14831,7 +14835,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="41">
         <v>45658</v>
       </c>
@@ -14849,7 +14853,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="41">
         <v>45689</v>
       </c>
@@ -14867,7 +14871,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="41">
         <v>45717</v>
       </c>
@@ -14885,7 +14889,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="41">
         <v>45748</v>
       </c>
@@ -14903,7 +14907,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="41">
         <v>45778</v>
       </c>
@@ -14921,7 +14925,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="41">
         <v>45809</v>
       </c>
@@ -14939,7 +14943,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="41">
         <v>45839</v>
       </c>
@@ -14957,7 +14961,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="41">
         <v>45870</v>
       </c>
@@ -14975,7 +14979,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="41">
         <v>45901</v>
       </c>
@@ -14993,7 +14997,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="41">
         <v>45931</v>
       </c>
@@ -15011,7 +15015,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="41">
         <v>45962</v>
       </c>
@@ -15029,7 +15033,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="41">
         <v>45992</v>
       </c>
@@ -15047,7 +15051,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="41">
         <v>46023</v>
       </c>
@@ -15065,7 +15069,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="41">
         <v>46054</v>
       </c>
@@ -15083,7 +15087,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="41">
         <v>46082</v>
       </c>
@@ -15101,7 +15105,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="41">
         <v>46113</v>
       </c>
@@ -15119,7 +15123,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="41">
         <v>46143</v>
       </c>
@@ -15137,7 +15141,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="41">
         <v>46174</v>
       </c>
@@ -15155,7 +15159,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="41">
         <v>46204</v>
       </c>
@@ -15173,7 +15177,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="41">
         <v>46235</v>
       </c>
@@ -15191,7 +15195,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="41">
         <v>46266</v>
       </c>
@@ -15209,7 +15213,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="41">
         <v>46296</v>
       </c>
@@ -15227,7 +15231,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="41">
         <v>46327</v>
       </c>
@@ -15245,7 +15249,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="41">
         <v>46357</v>
       </c>
@@ -15263,7 +15267,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="41">
         <v>46388</v>
       </c>
@@ -15281,7 +15285,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="41">
         <v>46419</v>
       </c>
@@ -15299,7 +15303,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="41">
         <v>46447</v>
       </c>
@@ -15317,7 +15321,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="41">
         <v>46478</v>
       </c>
@@ -15335,7 +15339,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="41">
         <v>46508</v>
       </c>
@@ -15353,7 +15357,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="41">
         <v>46539</v>
       </c>
@@ -15371,7 +15375,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="41">
         <v>46569</v>
       </c>
@@ -15389,7 +15393,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="41">
         <v>46600</v>
       </c>
@@ -15407,7 +15411,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="41">
         <v>46631</v>
       </c>
@@ -15425,7 +15429,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="41">
         <v>46661</v>
       </c>
@@ -15443,7 +15447,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="41">
         <v>46692</v>
       </c>
@@ -15461,7 +15465,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="41">
         <v>46722</v>
       </c>
@@ -15479,7 +15483,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="41">
         <v>46753</v>
       </c>
@@ -15497,7 +15501,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="41">
         <v>46784</v>
       </c>
@@ -15515,7 +15519,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="41">
         <v>46813</v>
       </c>
@@ -15533,7 +15537,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="41">
         <v>46844</v>
       </c>
@@ -15551,7 +15555,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="41">
         <v>46874</v>
       </c>
@@ -15569,7 +15573,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="41">
         <v>46905</v>
       </c>
@@ -15587,7 +15591,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="41">
         <v>46935</v>
       </c>
@@ -15605,7 +15609,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="41">
         <v>46966</v>
       </c>
@@ -15623,7 +15627,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="41">
         <v>46997</v>
       </c>
@@ -15641,7 +15645,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="41">
         <v>47027</v>
       </c>
@@ -15659,7 +15663,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="41">
         <v>47058</v>
       </c>
@@ -15677,7 +15681,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="41">
         <v>47088</v>
       </c>
@@ -15695,7 +15699,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="41">
         <v>47119</v>
       </c>
@@ -15713,7 +15717,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="41">
         <v>47150</v>
       </c>
@@ -15731,7 +15735,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="41">
         <v>47178</v>
       </c>
@@ -15749,7 +15753,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="41">
         <v>47209</v>
       </c>
@@ -15767,7 +15771,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="41">
         <v>47239</v>
       </c>
@@ -15785,7 +15789,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="41">
         <v>47270</v>
       </c>
@@ -15803,7 +15807,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="41">
         <v>47300</v>
       </c>
@@ -15821,7 +15825,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="41">
         <v>47331</v>
       </c>
@@ -15839,7 +15843,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="41">
         <v>47362</v>
       </c>
@@ -15857,7 +15861,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="41">
         <v>47392</v>
       </c>
@@ -15875,7 +15879,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="41">
         <v>47423</v>
       </c>
@@ -15893,7 +15897,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="41">
         <v>47453</v>
       </c>
@@ -15911,7 +15915,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="41">
         <v>47484</v>
       </c>
@@ -15929,7 +15933,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="41">
         <v>47515</v>
       </c>
@@ -15947,7 +15951,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="41">
         <v>47543</v>
       </c>
@@ -15965,7 +15969,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="41">
         <v>47574</v>
       </c>
@@ -15983,7 +15987,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="41">
         <v>47604</v>
       </c>
@@ -16001,7 +16005,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="41">
         <v>47635</v>
       </c>
@@ -16019,7 +16023,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="41">
         <v>47665</v>
       </c>
@@ -16037,7 +16041,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="41">
         <v>47696</v>
       </c>
@@ -16055,7 +16059,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="41">
         <v>47727</v>
       </c>
@@ -16073,7 +16077,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="41">
         <v>47757</v>
       </c>
@@ -16091,7 +16095,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="41">
         <v>47788</v>
       </c>
@@ -16109,7 +16113,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="41">
         <v>47818</v>
       </c>
@@ -16127,7 +16131,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="41">
         <v>47849</v>
       </c>
@@ -16145,7 +16149,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="41">
         <v>47880</v>
       </c>
@@ -16163,7 +16167,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="41">
         <v>47908</v>
       </c>
@@ -16181,7 +16185,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="41">
         <v>47939</v>
       </c>
@@ -16199,7 +16203,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="41">
         <v>47969</v>
       </c>
@@ -16217,7 +16221,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="41">
         <v>48000</v>
       </c>
@@ -16235,7 +16239,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="41">
         <v>48030</v>
       </c>
@@ -16253,7 +16257,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="41">
         <v>48061</v>
       </c>
@@ -16271,7 +16275,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="41">
         <v>48092</v>
       </c>
@@ -16289,7 +16293,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="41">
         <v>48122</v>
       </c>
@@ -16307,7 +16311,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="41">
         <v>48153</v>
       </c>
@@ -16325,7 +16329,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="41">
         <v>48183</v>
       </c>
@@ -16343,7 +16347,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="41">
         <v>48214</v>
       </c>
@@ -16361,7 +16365,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="41">
         <v>48245</v>
       </c>
@@ -16379,7 +16383,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="41">
         <v>48274</v>
       </c>
@@ -16397,7 +16401,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="41">
         <v>48305</v>
       </c>
@@ -16415,7 +16419,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="41">
         <v>48335</v>
       </c>
@@ -16433,7 +16437,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="41">
         <v>48366</v>
       </c>
@@ -16451,7 +16455,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="41">
         <v>48396</v>
       </c>
@@ -16469,7 +16473,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="41">
         <v>48427</v>
       </c>
@@ -16487,7 +16491,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="41">
         <v>48458</v>
       </c>
@@ -16505,7 +16509,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="41">
         <v>48488</v>
       </c>
@@ -16523,7 +16527,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="41">
         <v>48519</v>
       </c>
@@ -16541,7 +16545,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="41">
         <v>48549</v>
       </c>
@@ -16559,7 +16563,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="41">
         <v>48580</v>
       </c>
@@ -16577,7 +16581,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="41">
         <v>48611</v>
       </c>
@@ -16595,7 +16599,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="41">
         <v>48639</v>
       </c>
@@ -16613,7 +16617,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="41">
         <v>48670</v>
       </c>
@@ -16631,7 +16635,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="41">
         <v>48700</v>
       </c>
@@ -16649,7 +16653,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="41">
         <v>48731</v>
       </c>
@@ -16667,7 +16671,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="41">
         <v>48761</v>
       </c>
@@ -16685,7 +16689,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="41">
         <v>48792</v>
       </c>
@@ -16703,7 +16707,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="41">
         <v>48823</v>
       </c>
@@ -16721,7 +16725,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="41">
         <v>48853</v>
       </c>
@@ -16739,7 +16743,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="41">
         <v>48884</v>
       </c>
@@ -16757,7 +16761,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="41">
         <v>48914</v>
       </c>
@@ -16775,7 +16779,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="41">
         <v>48945</v>
       </c>
@@ -16793,7 +16797,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="41">
         <v>48976</v>
       </c>
@@ -16811,7 +16815,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="41">
         <v>49004</v>
       </c>
@@ -16829,7 +16833,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="41">
         <v>49035</v>
       </c>
@@ -16847,7 +16851,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="41">
         <v>49065</v>
       </c>
@@ -16865,7 +16869,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="41">
         <v>49096</v>
       </c>
@@ -16883,7 +16887,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="41">
         <v>49126</v>
       </c>
@@ -16901,7 +16905,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="41">
         <v>49157</v>
       </c>
@@ -16919,7 +16923,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="41">
         <v>49188</v>
       </c>
@@ -16937,7 +16941,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="41">
         <v>49218</v>
       </c>
@@ -16955,7 +16959,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="41">
         <v>49249</v>
       </c>
@@ -16973,7 +16977,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="41">
         <v>49279</v>
       </c>
@@ -16991,7 +16995,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="41">
         <v>49310</v>
       </c>
@@ -17009,7 +17013,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="41">
         <v>49341</v>
       </c>
@@ -17027,7 +17031,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="41">
         <v>49369</v>
       </c>
@@ -17045,7 +17049,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="41">
         <v>49400</v>
       </c>
@@ -17063,7 +17067,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="41">
         <v>49430</v>
       </c>
@@ -17081,7 +17085,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="41">
         <v>49461</v>
       </c>
@@ -17099,7 +17103,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="41">
         <v>49491</v>
       </c>
@@ -17117,7 +17121,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="41">
         <v>49522</v>
       </c>
@@ -17135,7 +17139,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="41">
         <v>49553</v>
       </c>
@@ -17153,7 +17157,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="41">
         <v>49583</v>
       </c>
@@ -17171,7 +17175,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="41">
         <v>49614</v>
       </c>
@@ -17189,7 +17193,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="41">
         <v>49644</v>
       </c>
@@ -17207,7 +17211,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="41">
         <v>49675</v>
       </c>
@@ -17225,7 +17229,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="41">
         <v>49706</v>
       </c>
@@ -17243,7 +17247,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="41">
         <v>49735</v>
       </c>
@@ -17261,7 +17265,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="41">
         <v>49766</v>
       </c>
@@ -17279,7 +17283,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="41">
         <v>49796</v>
       </c>
@@ -17297,7 +17301,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="41">
         <v>49827</v>
       </c>
@@ -17315,7 +17319,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="41">
         <v>49857</v>
       </c>
@@ -17333,7 +17337,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="41">
         <v>49888</v>
       </c>
@@ -17351,7 +17355,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="41">
         <v>49919</v>
       </c>
@@ -17369,7 +17373,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="41">
         <v>49949</v>
       </c>
@@ -17387,7 +17391,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="41">
         <v>49980</v>
       </c>
@@ -17405,7 +17409,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="41">
         <v>50010</v>
       </c>
@@ -17423,7 +17427,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="41">
         <v>50041</v>
       </c>
@@ -17441,7 +17445,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="41">
         <v>50072</v>
       </c>
@@ -17459,7 +17463,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="41">
         <v>50100</v>
       </c>
@@ -17477,7 +17481,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="41">
         <v>50131</v>
       </c>
@@ -17495,7 +17499,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="41">
         <v>50161</v>
       </c>
@@ -17513,7 +17517,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="41">
         <v>50192</v>
       </c>
@@ -17531,7 +17535,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="41">
         <v>50222</v>
       </c>
@@ -17549,7 +17553,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="41">
         <v>50253</v>
       </c>
@@ -17567,7 +17571,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="41">
         <v>50284</v>
       </c>
@@ -17585,7 +17589,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="41">
         <v>50314</v>
       </c>
@@ -17603,7 +17607,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="41">
         <v>50345</v>
       </c>
@@ -17621,7 +17625,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="41">
         <v>50375</v>
       </c>
@@ -17639,7 +17643,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="41">
         <v>50406</v>
       </c>
@@ -17657,7 +17661,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="41">
         <v>50437</v>
       </c>
@@ -17675,7 +17679,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="41">
         <v>50465</v>
       </c>
@@ -17693,7 +17697,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="41">
         <v>50496</v>
       </c>
@@ -17711,7 +17715,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="41">
         <v>50526</v>
       </c>
@@ -17729,7 +17733,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="41">
         <v>50557</v>
       </c>
@@ -17747,7 +17751,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="41">
         <v>50587</v>
       </c>
@@ -17780,10 +17784,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17806,28 +17810,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -17840,7 +17844,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17869,7 +17873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>35.598999999999997</v>
       </c>
@@ -17897,17 +17901,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17928,7 +17932,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17955,7 +17959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -17981,7 +17985,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18007,7 +18011,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18033,7 +18037,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18059,7 +18063,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18085,7 +18089,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18111,7 +18115,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18137,7 +18141,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18157,7 +18161,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18177,7 +18181,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18197,7 +18201,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18218,7 +18222,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18239,7 +18243,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18260,7 +18264,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18281,7 +18285,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18302,7 +18306,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18323,7 +18327,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18344,7 +18348,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18365,7 +18369,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18386,7 +18390,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18407,7 +18411,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18428,7 +18432,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18449,7 +18453,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18470,7 +18474,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18491,7 +18495,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18512,7 +18516,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18533,7 +18537,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18554,7 +18558,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18575,7 +18579,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18596,7 +18600,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18617,7 +18621,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18626,7 +18630,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18635,7 +18639,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18644,7 +18648,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18653,7 +18657,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18662,7 +18666,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18671,7 +18675,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18680,7 +18684,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18689,7 +18693,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18698,7 +18702,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18707,7 +18711,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18716,7 +18720,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18725,7 +18729,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18734,7 +18738,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18743,7 +18747,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18752,7 +18756,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18761,7 +18765,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18770,7 +18774,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18779,7 +18783,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18788,7 +18792,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18797,7 +18801,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18806,7 +18810,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18815,7 +18819,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18824,7 +18828,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18833,7 +18837,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18842,7 +18846,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18851,7 +18855,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18860,7 +18864,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18869,7 +18873,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18878,7 +18882,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LEPARDO, ROWENA.xlsx
+++ b/REGULAR/LEPARDO, ROWENA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="514">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2378,7 +2378,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K706" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K707" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2707,12 +2707,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K706"/>
+  <dimension ref="A2:K707"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A516" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="C523" sqref="C523"/>
+      <selection pane="bottomLeft" activeCell="E526" sqref="E526"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14494,10 +14494,10 @@
       </c>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A525" s="41">
-        <v>45078</v>
-      </c>
-      <c r="B525" s="20"/>
+      <c r="A525" s="41"/>
+      <c r="B525" s="20" t="s">
+        <v>512</v>
+      </c>
       <c r="C525" s="13"/>
       <c r="D525" s="39"/>
       <c r="E525" s="9"/>
@@ -14509,11 +14509,13 @@
       <c r="H525" s="39"/>
       <c r="I525" s="9"/>
       <c r="J525" s="11"/>
-      <c r="K525" s="20"/>
+      <c r="K525" s="50">
+        <v>45085</v>
+      </c>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="41">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -14531,7 +14533,7 @@
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="41">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -14549,7 +14551,7 @@
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="41">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14567,7 +14569,7 @@
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="41">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -14585,7 +14587,7 @@
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="41">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -14603,7 +14605,7 @@
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="41">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -14621,7 +14623,7 @@
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="41">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -14639,7 +14641,7 @@
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="41">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14657,7 +14659,7 @@
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="41">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -14675,7 +14677,7 @@
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="41">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14693,7 +14695,7 @@
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="41">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14711,7 +14713,7 @@
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="41">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14729,7 +14731,7 @@
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="41">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14747,7 +14749,7 @@
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="41">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14765,7 +14767,7 @@
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="41">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14783,7 +14785,7 @@
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="41">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14801,7 +14803,7 @@
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="41">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14819,7 +14821,7 @@
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="41">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14837,7 +14839,7 @@
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="41">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14855,7 +14857,7 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="41">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14873,7 +14875,7 @@
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="41">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14891,7 +14893,7 @@
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="41">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14909,7 +14911,7 @@
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="41">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14927,7 +14929,7 @@
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="41">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14945,7 +14947,7 @@
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="41">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14963,7 +14965,7 @@
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="41">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14981,7 +14983,7 @@
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="41">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -14999,7 +15001,7 @@
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="41">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15017,7 +15019,7 @@
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="41">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15035,7 +15037,7 @@
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="41">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15053,7 +15055,7 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="41">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15071,7 +15073,7 @@
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="41">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15089,7 +15091,7 @@
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="41">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15107,7 +15109,7 @@
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="41">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15125,7 +15127,7 @@
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="41">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15143,7 +15145,7 @@
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="41">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15161,7 +15163,7 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="41">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15179,7 +15181,7 @@
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="41">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15197,7 +15199,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="41">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15215,7 +15217,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="41">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15233,7 +15235,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="41">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15251,7 +15253,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="41">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15269,7 +15271,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="41">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15287,7 +15289,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="41">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15305,7 +15307,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="41">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15323,7 +15325,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="41">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15341,7 +15343,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="41">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15359,7 +15361,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="41">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15377,7 +15379,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="41">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15395,7 +15397,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="41">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15413,7 +15415,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="41">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15431,7 +15433,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="41">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15449,7 +15451,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="41">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15467,7 +15469,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="41">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15485,7 +15487,7 @@
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="41">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15503,7 +15505,7 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="41">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15521,7 +15523,7 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="41">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15539,7 +15541,7 @@
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="41">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15557,7 +15559,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="41">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15575,7 +15577,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="41">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15593,7 +15595,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="41">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15611,7 +15613,7 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="41">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15629,7 +15631,7 @@
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="41">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15647,7 +15649,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="41">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15665,7 +15667,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="41">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15683,7 +15685,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="41">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15701,7 +15703,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="41">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15719,7 +15721,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="41">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15737,7 +15739,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="41">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15755,7 +15757,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="41">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15773,7 +15775,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="41">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15791,7 +15793,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="41">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15809,7 +15811,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="41">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15827,7 +15829,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="41">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15845,7 +15847,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="41">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15863,7 +15865,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="41">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15881,7 +15883,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="41">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15899,7 +15901,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="41">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15917,7 +15919,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="41">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15935,7 +15937,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="41">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15953,7 +15955,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="41">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15971,7 +15973,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="41">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15989,7 +15991,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="41">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16007,7 +16009,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="41">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16025,7 +16027,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="41">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16043,7 +16045,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="41">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16061,7 +16063,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="41">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16079,7 +16081,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="41">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16097,7 +16099,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="41">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16115,7 +16117,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="41">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16133,7 +16135,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="41">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16151,7 +16153,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="41">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16169,7 +16171,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="41">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16187,7 +16189,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="41">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -16205,7 +16207,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="41">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16223,7 +16225,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="41">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16241,7 +16243,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="41">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -16259,7 +16261,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="41">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -16277,7 +16279,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="41">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -16295,7 +16297,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="41">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -16313,7 +16315,7 @@
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="41">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -16331,7 +16333,7 @@
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="41">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -16349,7 +16351,7 @@
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="41">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -16367,7 +16369,7 @@
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="41">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -16385,7 +16387,7 @@
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="41">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -16403,7 +16405,7 @@
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="41">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -16421,7 +16423,7 @@
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="41">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -16439,7 +16441,7 @@
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="41">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -16457,7 +16459,7 @@
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="41">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -16475,7 +16477,7 @@
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="41">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -16493,7 +16495,7 @@
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="41">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -16511,7 +16513,7 @@
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="41">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -16529,7 +16531,7 @@
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="41">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16547,7 +16549,7 @@
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="41">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16565,7 +16567,7 @@
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="41">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16583,7 +16585,7 @@
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="41">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16601,7 +16603,7 @@
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="41">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16619,7 +16621,7 @@
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="41">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16637,7 +16639,7 @@
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="41">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16655,7 +16657,7 @@
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="41">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16673,7 +16675,7 @@
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="41">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16691,7 +16693,7 @@
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="41">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16709,7 +16711,7 @@
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="41">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16727,7 +16729,7 @@
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="41">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -16745,7 +16747,7 @@
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="41">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -16763,7 +16765,7 @@
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="41">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -16781,7 +16783,7 @@
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="41">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -16799,7 +16801,7 @@
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="41">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16817,7 +16819,7 @@
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="41">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16835,7 +16837,7 @@
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="41">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16853,7 +16855,7 @@
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="41">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16871,7 +16873,7 @@
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="41">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16889,7 +16891,7 @@
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="41">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16907,7 +16909,7 @@
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="41">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -16925,7 +16927,7 @@
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="41">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -16943,7 +16945,7 @@
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="41">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -16961,7 +16963,7 @@
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="41">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -16979,7 +16981,7 @@
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="41">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -16997,7 +16999,7 @@
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="41">
-        <v>49310</v>
+        <v>49279</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17015,7 +17017,7 @@
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="41">
-        <v>49341</v>
+        <v>49310</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17033,7 +17035,7 @@
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="41">
-        <v>49369</v>
+        <v>49341</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17051,7 +17053,7 @@
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="41">
-        <v>49400</v>
+        <v>49369</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17069,7 +17071,7 @@
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="41">
-        <v>49430</v>
+        <v>49400</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17087,7 +17089,7 @@
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="41">
-        <v>49461</v>
+        <v>49430</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17105,7 +17107,7 @@
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="41">
-        <v>49491</v>
+        <v>49461</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17123,7 +17125,7 @@
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="41">
-        <v>49522</v>
+        <v>49491</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17141,7 +17143,7 @@
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="41">
-        <v>49553</v>
+        <v>49522</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17159,7 +17161,7 @@
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="41">
-        <v>49583</v>
+        <v>49553</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17177,7 +17179,7 @@
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="41">
-        <v>49614</v>
+        <v>49583</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17195,7 +17197,7 @@
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="41">
-        <v>49644</v>
+        <v>49614</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17213,7 +17215,7 @@
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="41">
-        <v>49675</v>
+        <v>49644</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17231,7 +17233,7 @@
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="41">
-        <v>49706</v>
+        <v>49675</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17249,7 +17251,7 @@
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="41">
-        <v>49735</v>
+        <v>49706</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17267,7 +17269,7 @@
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="41">
-        <v>49766</v>
+        <v>49735</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17285,7 +17287,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="41">
-        <v>49796</v>
+        <v>49766</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17303,7 +17305,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="41">
-        <v>49827</v>
+        <v>49796</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17321,7 +17323,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="41">
-        <v>49857</v>
+        <v>49827</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17339,7 +17341,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="41">
-        <v>49888</v>
+        <v>49857</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17357,7 +17359,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="41">
-        <v>49919</v>
+        <v>49888</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17375,7 +17377,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="41">
-        <v>49949</v>
+        <v>49919</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17393,7 +17395,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="41">
-        <v>49980</v>
+        <v>49949</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17411,7 +17413,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="41">
-        <v>50010</v>
+        <v>49980</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17429,7 +17431,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="41">
-        <v>50041</v>
+        <v>50010</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17447,7 +17449,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="41">
-        <v>50072</v>
+        <v>50041</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17465,7 +17467,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="41">
-        <v>50100</v>
+        <v>50072</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17483,7 +17485,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="41">
-        <v>50131</v>
+        <v>50100</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17501,7 +17503,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="41">
-        <v>50161</v>
+        <v>50131</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17519,7 +17521,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="41">
-        <v>50192</v>
+        <v>50161</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17537,7 +17539,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="41">
-        <v>50222</v>
+        <v>50192</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17555,7 +17557,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="41">
-        <v>50253</v>
+        <v>50222</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17573,7 +17575,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="41">
-        <v>50284</v>
+        <v>50253</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17591,7 +17593,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="41">
-        <v>50314</v>
+        <v>50284</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17609,7 +17611,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="41">
-        <v>50345</v>
+        <v>50314</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17627,7 +17629,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="41">
-        <v>50375</v>
+        <v>50345</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17645,7 +17647,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="41">
-        <v>50406</v>
+        <v>50375</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17663,7 +17665,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="41">
-        <v>50437</v>
+        <v>50406</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17681,7 +17683,7 @@
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="41">
-        <v>50465</v>
+        <v>50437</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -17699,7 +17701,7 @@
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="41">
-        <v>50496</v>
+        <v>50465</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -17717,7 +17719,7 @@
     </row>
     <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="41">
-        <v>50526</v>
+        <v>50496</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -17735,7 +17737,7 @@
     </row>
     <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="41">
-        <v>50557</v>
+        <v>50526</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -17753,7 +17755,7 @@
     </row>
     <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="41">
-        <v>50587</v>
+        <v>50557</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -17768,6 +17770,24 @@
       <c r="I706" s="9"/>
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
+    </row>
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A707" s="41">
+        <v>50587</v>
+      </c>
+      <c r="B707" s="20"/>
+      <c r="C707" s="13"/>
+      <c r="D707" s="39"/>
+      <c r="E707" s="9"/>
+      <c r="F707" s="20"/>
+      <c r="G707" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H707" s="39"/>
+      <c r="I707" s="9"/>
+      <c r="J707" s="11"/>
+      <c r="K707" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/LEPARDO, ROWENA.xlsx
+++ b/REGULAR/LEPARDO, ROWENA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="514">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2712,7 +2712,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A516" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="E526" sqref="E526"/>
+      <selection pane="bottomLeft" activeCell="K527" sqref="K527"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14517,7 +14517,9 @@
       <c r="A526" s="41">
         <v>45078</v>
       </c>
-      <c r="B526" s="20"/>
+      <c r="B526" s="20" t="s">
+        <v>512</v>
+      </c>
       <c r="C526" s="13"/>
       <c r="D526" s="39"/>
       <c r="E526" s="9"/>
@@ -14529,7 +14531,9 @@
       <c r="H526" s="39"/>
       <c r="I526" s="9"/>
       <c r="J526" s="11"/>
-      <c r="K526" s="20"/>
+      <c r="K526" s="50">
+        <v>45091</v>
+      </c>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="41">

--- a/REGULAR/LEPARDO, ROWENA.xlsx
+++ b/REGULAR/LEPARDO, ROWENA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43F60B-1089-4CB1-9AED-168BD0909518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="514">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1680,7 +1681,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2361,7 +2362,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2378,25 +2379,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K707" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K708" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2703,34 +2704,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K707"/>
+  <dimension ref="A2:K708"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A516" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A519" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="K527" sqref="K527"/>
+      <selection pane="bottomLeft" activeCell="B528" sqref="B528"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2751,7 +2752,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2773,7 +2774,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2795,7 +2796,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2803,7 +2804,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2816,7 +2817,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2833,7 +2834,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2868,7 +2869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2877,7 +2878,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>44.963000000000086</v>
+        <v>47.463000000000086</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2887,12 +2888,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>98.871999999999986</v>
+        <v>101.37199999999999</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>61</v>
       </c>
@@ -2914,7 +2915,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36281</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
@@ -2962,7 +2963,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>46</v>
@@ -2982,7 +2983,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>36312</v>
       </c>
@@ -3006,7 +3007,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="41">
         <v>36342</v>
       </c>
@@ -3030,7 +3031,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36373</v>
       </c>
@@ -3054,7 +3055,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36404</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>499</v>
@@ -3100,7 +3101,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>36434</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>51</v>
@@ -3146,7 +3147,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36465</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>52</v>
@@ -3192,7 +3193,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>53</v>
@@ -3214,7 +3215,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>36495</v>
       </c>
@@ -3238,7 +3239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="48" t="s">
         <v>62</v>
       </c>
@@ -3256,7 +3257,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>36526</v>
       </c>
@@ -3276,7 +3277,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36557</v>
       </c>
@@ -3300,7 +3301,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>65</v>
@@ -3322,7 +3323,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36586</v>
       </c>
@@ -3346,7 +3347,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>52</v>
@@ -3368,7 +3369,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>66</v>
@@ -3390,7 +3391,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>36617</v>
       </c>
@@ -3414,7 +3415,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36647</v>
       </c>
@@ -3438,7 +3439,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>53</v>
@@ -3462,7 +3463,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>36678</v>
       </c>
@@ -3486,7 +3487,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>50</v>
@@ -3510,7 +3511,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>36708</v>
       </c>
@@ -3536,7 +3537,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36739</v>
       </c>
@@ -3562,7 +3563,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>36770</v>
       </c>
@@ -3584,7 +3585,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36800</v>
       </c>
@@ -3608,7 +3609,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>36831</v>
       </c>
@@ -3632,7 +3633,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>80</v>
@@ -3654,7 +3655,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>36861</v>
       </c>
@@ -3678,7 +3679,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>83</v>
@@ -3700,7 +3701,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="48" t="s">
         <v>84</v>
       </c>
@@ -3718,7 +3719,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>36892</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>86</v>
@@ -3764,7 +3765,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>87</v>
@@ -3784,7 +3785,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>36923</v>
       </c>
@@ -3808,7 +3809,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>500</v>
@@ -3832,7 +3833,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>50</v>
@@ -3854,7 +3855,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>206</v>
@@ -3874,7 +3875,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>36951</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>94</v>
@@ -3924,7 +3925,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>36982</v>
       </c>
@@ -3946,7 +3947,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>37012</v>
       </c>
@@ -3970,7 +3971,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>52</v>
@@ -3992,7 +3993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>99</v>
@@ -4014,7 +4015,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
@@ -4038,7 +4039,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37043</v>
       </c>
@@ -4058,7 +4059,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>37073</v>
       </c>
@@ -4082,7 +4083,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -4100,7 +4101,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>40756</v>
       </c>
@@ -4124,7 +4125,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37135</v>
       </c>
@@ -4148,7 +4149,7 @@
         <v>37234</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>107</v>
@@ -4172,7 +4173,7 @@
         <v>37236</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>40817</v>
       </c>
@@ -4196,7 +4197,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37196</v>
       </c>
@@ -4220,7 +4221,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>114</v>
@@ -4242,7 +4243,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>37226</v>
       </c>
@@ -4266,7 +4267,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>78</v>
@@ -4286,7 +4287,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23" t="s">
         <v>111</v>
       </c>
@@ -4306,7 +4307,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37257</v>
       </c>
@@ -4332,7 +4333,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>112</v>
@@ -4356,7 +4357,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>37288</v>
       </c>
@@ -4380,7 +4381,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37316</v>
       </c>
@@ -4404,7 +4405,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>37347</v>
       </c>
@@ -4428,7 +4429,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>37377</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>504</v>
@@ -4474,7 +4475,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>37408</v>
       </c>
@@ -4494,7 +4495,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>37438</v>
       </c>
@@ -4518,7 +4519,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>37469</v>
       </c>
@@ -4542,7 +4543,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>37500</v>
       </c>
@@ -4568,7 +4569,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37530</v>
       </c>
@@ -4594,7 +4595,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>37561</v>
       </c>
@@ -4614,7 +4615,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>37591</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>125</v>
@@ -4662,7 +4663,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>125</v>
@@ -4684,7 +4685,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="48" t="s">
         <v>129</v>
       </c>
@@ -4702,7 +4703,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>37622</v>
       </c>
@@ -4722,7 +4723,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37653</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>131</v>
@@ -4770,7 +4771,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>37681</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>37958</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>141</v>
@@ -4816,7 +4817,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>52</v>
@@ -4838,7 +4839,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>505</v>
@@ -4860,7 +4861,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>37712</v>
       </c>
@@ -4884,7 +4885,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>37742</v>
       </c>
@@ -4908,7 +4909,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>99</v>
@@ -4930,7 +4931,7 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>506</v>
@@ -4952,7 +4953,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>507</v>
@@ -4972,7 +4973,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>137</v>
@@ -4996,7 +4997,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37773</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>37931</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>37803</v>
       </c>
@@ -5046,7 +5047,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>508</v>
@@ -5068,7 +5069,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>37834</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>143</v>
@@ -5118,7 +5119,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37865</v>
       </c>
@@ -5142,7 +5143,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>146</v>
@@ -5164,7 +5165,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>37895</v>
       </c>
@@ -5188,7 +5189,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>146</v>
@@ -5210,7 +5211,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>37926</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>37966</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>125</v>
@@ -5256,7 +5257,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>151</v>
@@ -5278,7 +5279,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37956</v>
       </c>
@@ -5302,7 +5303,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>152</v>
@@ -5324,7 +5325,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="48" t="s">
         <v>154</v>
       </c>
@@ -5342,7 +5343,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>37987</v>
       </c>
@@ -5360,7 +5361,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>155</v>
@@ -5382,7 +5383,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>52</v>
@@ -5404,7 +5405,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>158</v>
@@ -5428,7 +5429,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="49"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>38018</v>
       </c>
@@ -5452,7 +5453,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>38047</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
@@ -5498,7 +5499,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>163</v>
@@ -5520,7 +5521,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>38078</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>38108</v>
       </c>
@@ -5566,7 +5567,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>131</v>
@@ -5592,7 +5593,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41">
         <v>38139</v>
       </c>
@@ -5616,7 +5617,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>169</v>
@@ -5638,7 +5639,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>38169</v>
       </c>
@@ -5662,7 +5663,7 @@
         <v>38175</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>125</v>
@@ -5684,7 +5685,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>125</v>
@@ -5706,7 +5707,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>125</v>
@@ -5728,7 +5729,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>171</v>
@@ -5750,7 +5751,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5770,7 +5771,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>38200</v>
       </c>
@@ -5790,7 +5791,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>38231</v>
       </c>
@@ -5810,7 +5811,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>38261</v>
       </c>
@@ -5830,7 +5831,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="41">
         <v>38292</v>
       </c>
@@ -5856,7 +5857,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>38322</v>
       </c>
@@ -5884,7 +5885,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5902,7 +5903,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="48" t="s">
         <v>179</v>
       </c>
@@ -5920,7 +5921,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23">
         <v>38353</v>
       </c>
@@ -5940,7 +5941,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <v>38384</v>
       </c>
@@ -5960,7 +5961,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23">
         <v>38412</v>
       </c>
@@ -5980,7 +5981,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>38443</v>
       </c>
@@ -6002,7 +6003,7 @@
         <v>38690</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>180</v>
@@ -6024,7 +6025,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>38473</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>184</v>
@@ -6070,7 +6071,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38504</v>
       </c>
@@ -6094,7 +6095,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="41"/>
       <c r="B151" s="15" t="s">
         <v>186</v>
@@ -6120,7 +6121,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>38534</v>
       </c>
@@ -6148,7 +6149,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>38565</v>
       </c>
@@ -6172,7 +6173,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>191</v>
@@ -6196,7 +6197,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>38596</v>
       </c>
@@ -6224,7 +6225,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>194</v>
@@ -6246,7 +6247,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6266,7 +6267,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>38626</v>
       </c>
@@ -6292,7 +6293,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>38657</v>
       </c>
@@ -6318,7 +6319,7 @@
         <v>38667</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>38687</v>
       </c>
@@ -6340,7 +6341,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="41"/>
       <c r="B161" s="15" t="s">
         <v>199</v>
@@ -6360,7 +6361,7 @@
       <c r="J161" s="12"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>199</v>
@@ -6386,7 +6387,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23" t="s">
         <v>201</v>
       </c>
@@ -6404,7 +6405,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>38718</v>
       </c>
@@ -6430,7 +6431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>130</v>
@@ -6454,7 +6455,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>38749</v>
       </c>
@@ -6476,7 +6477,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>180</v>
@@ -6498,7 +6499,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>38777</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>38808</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>52</v>
@@ -6568,7 +6569,7 @@
         <v>39026</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38838</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>38869</v>
       </c>
@@ -6620,7 +6621,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>212</v>
@@ -6642,7 +6643,7 @@
         <v>38236</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>38899</v>
       </c>
@@ -6666,7 +6667,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="41"/>
       <c r="B175" s="15" t="s">
         <v>215</v>
@@ -6692,7 +6693,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>38930</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>38961</v>
       </c>
@@ -6740,7 +6741,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>38991</v>
       </c>
@@ -6760,7 +6761,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>39022</v>
       </c>
@@ -6780,7 +6781,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>39052</v>
       </c>
@@ -6800,7 +6801,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="48" t="s">
         <v>220</v>
       </c>
@@ -6818,7 +6819,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>39083</v>
       </c>
@@ -6840,7 +6841,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>125</v>
@@ -6864,7 +6865,7 @@
         <v>39387</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>39114</v>
       </c>
@@ -6884,7 +6885,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13">
@@ -6906,7 +6907,7 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>39142</v>
       </c>
@@ -6926,7 +6927,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>39173</v>
       </c>
@@ -6950,7 +6951,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>224</v>
@@ -6974,7 +6975,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>39203</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="41"/>
       <c r="B190" s="15" t="s">
         <v>226</v>
@@ -7024,7 +7025,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>39234</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40">
         <v>39264</v>
       </c>
@@ -7072,7 +7073,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>231</v>
@@ -7092,7 +7093,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>232</v>
@@ -7116,7 +7117,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>39295</v>
       </c>
@@ -7140,7 +7141,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>39326</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>39356</v>
       </c>
@@ -7198,7 +7199,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="41">
         <v>39387</v>
       </c>
@@ -7218,7 +7219,7 @@
       <c r="J198" s="12"/>
       <c r="K198" s="15"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>241</v>
@@ -7244,7 +7245,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>39417</v>
       </c>
@@ -7264,7 +7265,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="48" t="s">
         <v>243</v>
       </c>
@@ -7282,7 +7283,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>39448</v>
       </c>
@@ -7302,7 +7303,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>39479</v>
       </c>
@@ -7324,7 +7325,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>244</v>
@@ -7344,7 +7345,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>245</v>
@@ -7366,7 +7367,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>39508</v>
       </c>
@@ -7390,7 +7391,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>39539</v>
       </c>
@@ -7412,7 +7413,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>245</v>
@@ -7434,7 +7435,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>39569</v>
       </c>
@@ -7458,7 +7459,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>251</v>
@@ -7480,7 +7481,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>39600</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>39484</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>143</v>
@@ -7526,7 +7527,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>253</v>
@@ -7550,7 +7551,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>39630</v>
       </c>
@@ -7570,7 +7571,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>255</v>
@@ -7592,7 +7593,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>506</v>
@@ -7614,7 +7615,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>143</v>
@@ -7638,7 +7639,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
         <v>39661</v>
       </c>
@@ -7662,7 +7663,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>39692</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>39761</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="41"/>
       <c r="B220" s="15" t="s">
         <v>259</v>
@@ -7708,7 +7709,7 @@
       <c r="J220" s="12"/>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>39722</v>
       </c>
@@ -7732,7 +7733,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>143</v>
@@ -7754,7 +7755,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>39753</v>
       </c>
@@ -7774,7 +7775,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>39783</v>
       </c>
@@ -7798,7 +7799,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23" t="s">
         <v>263</v>
       </c>
@@ -7816,7 +7817,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>39814</v>
       </c>
@@ -7842,7 +7843,7 @@
         <v>39934</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>264</v>
@@ -7862,7 +7863,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39845</v>
       </c>
@@ -7884,7 +7885,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>39873</v>
       </c>
@@ -7906,7 +7907,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
         <v>39904</v>
       </c>
@@ -7932,7 +7933,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>39934</v>
       </c>
@@ -7952,7 +7953,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>39965</v>
       </c>
@@ -7972,7 +7973,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40">
         <v>39995</v>
       </c>
@@ -7996,7 +7997,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>232</v>
@@ -8020,7 +8021,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>40026</v>
       </c>
@@ -8040,7 +8041,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>40057</v>
       </c>
@@ -8060,7 +8061,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
         <v>40087</v>
       </c>
@@ -8086,7 +8087,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>40118</v>
       </c>
@@ -8106,7 +8107,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>40148</v>
       </c>
@@ -8132,7 +8133,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23" t="s">
         <v>275</v>
       </c>
@@ -8150,7 +8151,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
         <v>40179</v>
       </c>
@@ -8170,7 +8171,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
         <v>40210</v>
       </c>
@@ -8194,7 +8195,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>40238</v>
       </c>
@@ -8214,7 +8215,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="41">
         <v>40269</v>
       </c>
@@ -8236,7 +8237,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>277</v>
@@ -8258,7 +8259,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>232</v>
@@ -8280,7 +8281,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>232</v>
@@ -8304,7 +8305,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
         <v>40299</v>
       </c>
@@ -8324,7 +8325,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>40330</v>
       </c>
@@ -8350,7 +8351,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>284</v>
@@ -8374,7 +8375,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>40360</v>
       </c>
@@ -8394,7 +8395,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
         <v>40391</v>
       </c>
@@ -8418,7 +8419,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>288</v>
@@ -8440,7 +8441,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40">
         <v>40422</v>
       </c>
@@ -8464,7 +8465,7 @@
         <v>40246</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>285</v>
@@ -8486,7 +8487,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
         <v>40452</v>
       </c>
@@ -8510,7 +8511,7 @@
         <v>40522</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>289</v>
@@ -8532,7 +8533,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="41">
         <v>40483</v>
       </c>
@@ -8558,7 +8559,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>248</v>
@@ -8580,7 +8581,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
         <v>40513</v>
       </c>
@@ -8600,7 +8601,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="48" t="s">
         <v>292</v>
       </c>
@@ -8618,7 +8619,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
         <v>40544</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
         <v>40575</v>
       </c>
@@ -8664,7 +8665,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>294</v>
@@ -8686,7 +8687,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
         <v>40603</v>
       </c>
@@ -8712,7 +8713,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>297</v>
@@ -8734,7 +8735,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
         <v>40634</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>108</v>
@@ -8780,7 +8781,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
         <v>40664</v>
       </c>
@@ -8804,7 +8805,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13">
@@ -8826,7 +8827,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40">
         <v>40695</v>
       </c>
@@ -8846,7 +8847,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="40">
         <v>40725</v>
       </c>
@@ -8870,7 +8871,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>248</v>
@@ -8892,7 +8893,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="41">
         <v>40756</v>
       </c>
@@ -8916,7 +8917,7 @@
       </c>
       <c r="K274" s="15"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>303</v>
@@ -8942,7 +8943,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13">
@@ -8960,7 +8961,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
         <v>40787</v>
       </c>
@@ -8980,7 +8981,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>40817</v>
       </c>
@@ -9006,7 +9007,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
         <v>40848</v>
       </c>
@@ -9026,7 +9027,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
         <v>40878</v>
       </c>
@@ -9052,7 +9053,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="48"/>
       <c r="B281" s="20" t="s">
         <v>307</v>
@@ -9074,7 +9075,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="48" t="s">
         <v>306</v>
       </c>
@@ -9092,7 +9093,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
         <v>40909</v>
       </c>
@@ -9114,7 +9115,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>310</v>
@@ -9136,7 +9137,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="41"/>
       <c r="B285" s="15" t="s">
         <v>312</v>
@@ -9160,7 +9161,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>244</v>
@@ -9182,7 +9183,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40">
         <v>40940</v>
       </c>
@@ -9204,7 +9205,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>317</v>
@@ -9228,7 +9229,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>40969</v>
       </c>
@@ -9254,7 +9255,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>318</v>
@@ -9276,7 +9277,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
         <v>41000</v>
       </c>
@@ -9296,7 +9297,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>41030</v>
       </c>
@@ -9322,7 +9323,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
         <v>41061</v>
       </c>
@@ -9346,7 +9347,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
         <v>41091</v>
       </c>
@@ -9370,7 +9371,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>143</v>
@@ -9392,7 +9393,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>41122</v>
       </c>
@@ -9412,7 +9413,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
         <v>41153</v>
       </c>
@@ -9438,7 +9439,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
         <v>41183</v>
       </c>
@@ -9462,7 +9463,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>41214</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
         <v>41244</v>
       </c>
@@ -9510,7 +9511,7 @@
         <v>41072</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>143</v>
@@ -9534,7 +9535,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="48" t="s">
         <v>328</v>
       </c>
@@ -9552,7 +9553,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
         <v>41275</v>
       </c>
@@ -9574,7 +9575,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="41"/>
       <c r="B304" s="15" t="s">
         <v>330</v>
@@ -9596,7 +9597,7 @@
       <c r="J304" s="12"/>
       <c r="K304" s="15"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40">
         <v>41306</v>
       </c>
@@ -9618,7 +9619,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>332</v>
@@ -9640,7 +9641,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>41334</v>
       </c>
@@ -9664,7 +9665,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>244</v>
@@ -9684,7 +9685,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>241</v>
@@ -9708,7 +9709,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>333</v>
@@ -9730,7 +9731,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>41365</v>
       </c>
@@ -9750,7 +9751,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40">
         <v>41395</v>
       </c>
@@ -9774,7 +9775,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>241</v>
@@ -9800,7 +9801,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
         <v>41426</v>
       </c>
@@ -9826,7 +9827,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>241</v>
@@ -9850,7 +9851,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>231</v>
@@ -9872,7 +9873,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>231</v>
@@ -9894,7 +9895,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>344</v>
@@ -9918,7 +9919,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
         <v>41456</v>
       </c>
@@ -9942,7 +9943,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40">
         <v>41487</v>
       </c>
@@ -9966,7 +9967,7 @@
         <v>41313</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>346</v>
@@ -9988,7 +9989,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
         <v>41518</v>
       </c>
@@ -10012,7 +10013,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>41548</v>
       </c>
@@ -10036,7 +10037,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>348</v>
@@ -10058,7 +10059,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>349</v>
@@ -10080,7 +10081,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40">
         <v>41579</v>
       </c>
@@ -10102,7 +10103,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>351</v>
@@ -10126,7 +10127,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>41609</v>
       </c>
@@ -10150,7 +10151,7 @@
         <v>41376</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>353</v>
@@ -10174,7 +10175,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="41"/>
       <c r="B330" s="15" t="s">
         <v>354</v>
@@ -10198,7 +10199,7 @@
       <c r="J330" s="12"/>
       <c r="K330" s="15"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="48" t="s">
         <v>356</v>
       </c>
@@ -10216,7 +10217,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40">
         <v>41640</v>
       </c>
@@ -10238,7 +10239,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>277</v>
@@ -10260,7 +10261,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>244</v>
@@ -10280,7 +10281,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>357</v>
@@ -10304,7 +10305,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
         <v>41671</v>
       </c>
@@ -10328,7 +10329,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>361</v>
@@ -10350,7 +10351,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>41699</v>
       </c>
@@ -10370,7 +10371,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>364</v>
@@ -10398,7 +10399,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
         <v>41730</v>
       </c>
@@ -10420,7 +10421,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>307</v>
@@ -10442,7 +10443,7 @@
         <v>41824</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>366</v>
@@ -10466,7 +10467,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40">
         <v>41760</v>
       </c>
@@ -10490,7 +10491,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>369</v>
@@ -10514,7 +10515,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="41"/>
       <c r="B345" s="15" t="s">
         <v>143</v>
@@ -10538,7 +10539,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
         <v>41791</v>
       </c>
@@ -10564,7 +10565,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>233</v>
@@ -10588,7 +10589,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
         <v>41821</v>
       </c>
@@ -10608,7 +10609,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40">
         <v>41852</v>
       </c>
@@ -10634,7 +10635,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>41883</v>
       </c>
@@ -10660,7 +10661,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>232</v>
@@ -10682,7 +10683,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>376</v>
@@ -10704,7 +10705,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>41913</v>
       </c>
@@ -10728,7 +10729,7 @@
         <v>41983</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>143</v>
@@ -10752,7 +10753,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>233</v>
@@ -10776,7 +10777,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="41"/>
       <c r="B356" s="15" t="s">
         <v>380</v>
@@ -10798,7 +10799,7 @@
       <c r="J356" s="12"/>
       <c r="K356" s="15"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
         <v>41944</v>
       </c>
@@ -10822,7 +10823,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>381</v>
@@ -10841,7 +10842,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
         <v>41974</v>
       </c>
@@ -10861,7 +10862,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>143</v>
@@ -10881,7 +10882,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>382</v>
@@ -10907,7 +10908,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23" t="s">
         <v>385</v>
       </c>
@@ -10925,7 +10926,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>42005</v>
       </c>
@@ -10947,7 +10948,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>386</v>
@@ -10971,7 +10972,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>42036</v>
       </c>
@@ -10993,7 +10994,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>244</v>
@@ -11011,7 +11012,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>388</v>
@@ -11035,7 +11036,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>42064</v>
       </c>
@@ -11059,7 +11060,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>391</v>
@@ -11083,7 +11084,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>42095</v>
       </c>
@@ -11107,7 +11108,7 @@
         <v>42008</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>393</v>
@@ -11129,7 +11130,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>42125</v>
       </c>
@@ -11155,7 +11156,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>143</v>
@@ -11179,7 +11180,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>396</v>
@@ -11201,7 +11202,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>42156</v>
       </c>
@@ -11227,7 +11228,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
         <v>42186</v>
       </c>
@@ -11253,7 +11254,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>233</v>
@@ -11277,7 +11278,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>143</v>
@@ -11299,7 +11300,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>110</v>
@@ -11319,7 +11320,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>233</v>
@@ -11337,7 +11338,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>397</v>
@@ -11359,7 +11360,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="41">
         <v>42217</v>
       </c>
@@ -11387,7 +11388,7 @@
         <v>42317</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>42248</v>
       </c>
@@ -11407,7 +11408,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>404</v>
@@ -11429,7 +11430,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>42278</v>
       </c>
@@ -11453,7 +11454,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>405</v>
@@ -11475,7 +11476,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
         <v>42309</v>
       </c>
@@ -11499,7 +11500,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>406</v>
@@ -11525,7 +11526,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>407</v>
@@ -11549,7 +11550,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>42339</v>
       </c>
@@ -11575,7 +11576,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="48" t="s">
         <v>411</v>
       </c>
@@ -11593,7 +11594,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>42370</v>
       </c>
@@ -11615,7 +11616,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>390</v>
@@ -11635,7 +11636,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>244</v>
@@ -11655,7 +11656,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>412</v>
@@ -11679,7 +11680,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
         <v>42401</v>
       </c>
@@ -11703,7 +11704,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>42430</v>
       </c>
@@ -11729,7 +11730,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>42461</v>
       </c>
@@ -11753,7 +11754,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>233</v>
@@ -11777,7 +11778,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>244</v>
@@ -11797,7 +11798,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>418</v>
@@ -11819,7 +11820,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>42491</v>
       </c>
@@ -11843,7 +11844,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>422</v>
@@ -11867,7 +11868,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>42522</v>
       </c>
@@ -11895,7 +11896,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>422</v>
@@ -11915,7 +11916,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>42552</v>
       </c>
@@ -11939,7 +11940,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="41">
         <v>42583</v>
       </c>
@@ -11959,7 +11960,7 @@
       <c r="J407" s="12"/>
       <c r="K407" s="15"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>42614</v>
       </c>
@@ -11983,7 +11984,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>42644</v>
       </c>
@@ -12007,7 +12008,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>232</v>
@@ -12031,7 +12032,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>233</v>
@@ -12053,7 +12054,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>430</v>
@@ -12075,7 +12076,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>42675</v>
       </c>
@@ -12099,7 +12100,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>42705</v>
       </c>
@@ -12125,7 +12126,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="23" t="s">
         <v>433</v>
       </c>
@@ -12143,7 +12144,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>42736</v>
       </c>
@@ -12163,7 +12164,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>434</v>
@@ -12189,7 +12190,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>42767</v>
       </c>
@@ -12213,7 +12214,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="41">
         <v>42795</v>
       </c>
@@ -12237,7 +12238,7 @@
       <c r="J419" s="12"/>
       <c r="K419" s="15"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>244</v>
@@ -12259,7 +12260,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -12277,7 +12278,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -12295,7 +12296,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>42826</v>
       </c>
@@ -12315,7 +12316,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>42856</v>
       </c>
@@ -12339,7 +12340,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>143</v>
@@ -12363,7 +12364,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>42887</v>
       </c>
@@ -12383,7 +12384,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>42917</v>
       </c>
@@ -12409,7 +12410,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>143</v>
@@ -12431,7 +12432,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>42948</v>
       </c>
@@ -12451,7 +12452,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>42979</v>
       </c>
@@ -12471,7 +12472,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>43009</v>
       </c>
@@ -12495,7 +12496,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>143</v>
@@ -12519,7 +12520,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>39387</v>
       </c>
@@ -12539,7 +12540,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>43070</v>
       </c>
@@ -12559,7 +12560,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="53" t="s">
         <v>446</v>
       </c>
@@ -12577,7 +12578,7 @@
       <c r="J435" s="12"/>
       <c r="K435" s="15"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>43101</v>
       </c>
@@ -12601,7 +12602,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>43132</v>
       </c>
@@ -12623,7 +12624,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>43160</v>
       </c>
@@ -12649,7 +12650,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>43191</v>
       </c>
@@ -12675,7 +12676,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>233</v>
@@ -12697,7 +12698,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>244</v>
@@ -12717,7 +12718,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>454</v>
@@ -12739,7 +12740,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>43221</v>
       </c>
@@ -12759,7 +12760,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>43252</v>
       </c>
@@ -12779,7 +12780,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>43282</v>
       </c>
@@ -12805,7 +12806,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43313</v>
       </c>
@@ -12831,7 +12832,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>43344</v>
       </c>
@@ -12857,7 +12858,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>43374</v>
       </c>
@@ -12877,7 +12878,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>43405</v>
       </c>
@@ -12897,7 +12898,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>43435</v>
       </c>
@@ -12923,7 +12924,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>406</v>
@@ -12945,7 +12946,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="48" t="s">
         <v>459</v>
       </c>
@@ -12963,7 +12964,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>43466</v>
       </c>
@@ -12983,7 +12984,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>43497</v>
       </c>
@@ -13005,7 +13006,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>143</v>
@@ -13027,7 +13028,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>244</v>
@@ -13049,7 +13050,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>43525</v>
       </c>
@@ -13069,7 +13070,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>43556</v>
       </c>
@@ -13095,7 +13096,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>462</v>
@@ -13117,7 +13118,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43586</v>
       </c>
@@ -13137,7 +13138,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>43617</v>
       </c>
@@ -13161,7 +13162,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>454</v>
@@ -13183,7 +13184,7 @@
         <v>43564</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="41">
         <v>43647</v>
       </c>
@@ -13203,7 +13204,7 @@
       <c r="J463" s="12"/>
       <c r="K463" s="15"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>43678</v>
       </c>
@@ -13227,7 +13228,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>43709</v>
       </c>
@@ -13251,7 +13252,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>465</v>
@@ -13271,7 +13272,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>465</v>
@@ -13291,7 +13292,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>43739</v>
       </c>
@@ -13311,7 +13312,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>43770</v>
       </c>
@@ -13335,7 +13336,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13">
@@ -13353,7 +13354,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>43800</v>
       </c>
@@ -13373,7 +13374,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="23" t="s">
         <v>470</v>
       </c>
@@ -13391,7 +13392,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>43831</v>
       </c>
@@ -13411,7 +13412,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43862</v>
       </c>
@@ -13435,7 +13436,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>472</v>
@@ -13455,7 +13456,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>244</v>
@@ -13475,7 +13476,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>43891</v>
       </c>
@@ -13495,7 +13496,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="41">
         <v>43922</v>
       </c>
@@ -13515,7 +13516,7 @@
       <c r="J478" s="12"/>
       <c r="K478" s="15"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>43952</v>
       </c>
@@ -13535,7 +13536,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>43983</v>
       </c>
@@ -13555,7 +13556,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>44013</v>
       </c>
@@ -13575,7 +13576,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>44044</v>
       </c>
@@ -13595,7 +13596,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>44075</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>44105</v>
       </c>
@@ -13639,7 +13640,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>44136</v>
       </c>
@@ -13659,7 +13660,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>44166</v>
       </c>
@@ -13685,7 +13686,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="23" t="s">
         <v>480</v>
       </c>
@@ -13703,7 +13704,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>44197</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>44228</v>
       </c>
@@ -13751,7 +13752,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>44256</v>
       </c>
@@ -13771,7 +13772,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>44287</v>
       </c>
@@ -13791,7 +13792,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="41">
         <v>44317</v>
       </c>
@@ -13811,7 +13812,7 @@
       <c r="J492" s="12"/>
       <c r="K492" s="15"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>44348</v>
       </c>
@@ -13835,7 +13836,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>44378</v>
       </c>
@@ -13859,7 +13860,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>485</v>
@@ -13877,7 +13878,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>44409</v>
       </c>
@@ -13897,7 +13898,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>44440</v>
       </c>
@@ -13917,7 +13918,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>44470</v>
       </c>
@@ -13937,7 +13938,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>44501</v>
       </c>
@@ -13957,7 +13958,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>44531</v>
       </c>
@@ -13983,7 +13984,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>244</v>
@@ -14003,7 +14004,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="23" t="s">
         <v>490</v>
       </c>
@@ -14021,7 +14022,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>44562</v>
       </c>
@@ -14043,7 +14044,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>244</v>
@@ -14063,7 +14064,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>44593</v>
       </c>
@@ -14085,7 +14086,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>44621</v>
       </c>
@@ -14105,7 +14106,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="41">
         <v>44652</v>
       </c>
@@ -14125,7 +14126,7 @@
       <c r="J507" s="12"/>
       <c r="K507" s="15"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>44682</v>
       </c>
@@ -14147,7 +14148,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>485</v>
@@ -14169,7 +14170,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>44713</v>
       </c>
@@ -14189,7 +14190,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>44743</v>
       </c>
@@ -14215,7 +14216,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>495</v>
@@ -14235,7 +14236,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40">
         <v>44774</v>
       </c>
@@ -14255,7 +14256,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>44805</v>
       </c>
@@ -14275,7 +14276,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40">
         <v>44835</v>
       </c>
@@ -14295,7 +14296,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>44866</v>
       </c>
@@ -14315,7 +14316,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40">
         <v>44896</v>
       </c>
@@ -14341,7 +14342,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="48" t="s">
         <v>510</v>
       </c>
@@ -14359,7 +14360,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40">
         <v>44927</v>
       </c>
@@ -14383,7 +14384,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="41">
         <v>44958</v>
       </c>
@@ -14407,7 +14408,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="41">
         <v>44986</v>
       </c>
@@ -14431,7 +14432,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="41"/>
       <c r="B522" s="20" t="s">
         <v>512</v>
@@ -14451,7 +14452,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="41">
         <v>45017</v>
       </c>
@@ -14471,20 +14472,22 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="41">
         <v>45047</v>
       </c>
       <c r="B524" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="C524" s="13"/>
+      <c r="C524" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D524" s="39"/>
       <c r="E524" s="9"/>
       <c r="F524" s="20"/>
-      <c r="G524" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G524" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H524" s="39"/>
       <c r="I524" s="9"/>
@@ -14493,7 +14496,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="41"/>
       <c r="B525" s="20" t="s">
         <v>512</v>
@@ -14513,20 +14516,22 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="41">
         <v>45078</v>
       </c>
       <c r="B526" s="20" t="s">
         <v>512</v>
       </c>
-      <c r="C526" s="13"/>
+      <c r="C526" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D526" s="39"/>
       <c r="E526" s="9"/>
       <c r="F526" s="20"/>
-      <c r="G526" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G526" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H526" s="39"/>
       <c r="I526" s="9"/>
@@ -14535,11 +14540,11 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A527" s="41">
-        <v>45108</v>
-      </c>
-      <c r="B527" s="20"/>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A527" s="41"/>
+      <c r="B527" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
       <c r="E527" s="9"/>
@@ -14551,11 +14556,13 @@
       <c r="H527" s="39"/>
       <c r="I527" s="9"/>
       <c r="J527" s="11"/>
-      <c r="K527" s="20"/>
-    </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K527" s="50">
+        <v>45117</v>
+      </c>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="41">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -14571,9 +14578,9 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="41">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -14589,9 +14596,9 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="41">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -14607,9 +14614,9 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="41">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -14625,9 +14632,9 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="41">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -14643,9 +14650,9 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="41">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -14661,9 +14668,9 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="41">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -14679,9 +14686,9 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="41">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -14697,9 +14704,9 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="41">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -14715,9 +14722,9 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="41">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -14733,9 +14740,9 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="41">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -14751,9 +14758,9 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="41">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -14769,9 +14776,9 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="41">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -14787,9 +14794,9 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="41">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -14805,9 +14812,9 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="41">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -14823,9 +14830,9 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="41">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -14841,9 +14848,9 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="41">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -14859,9 +14866,9 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="41">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -14877,9 +14884,9 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="41">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -14895,9 +14902,9 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="41">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -14913,9 +14920,9 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="41">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -14931,9 +14938,9 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="41">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -14949,9 +14956,9 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="41">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -14967,9 +14974,9 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="41">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -14985,9 +14992,9 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="41">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -15003,9 +15010,9 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="41">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -15021,9 +15028,9 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="41">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -15039,9 +15046,9 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="41">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -15057,9 +15064,9 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="41">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -15075,9 +15082,9 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="41">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -15093,9 +15100,9 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="41">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -15111,9 +15118,9 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="41">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -15129,9 +15136,9 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="41">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -15147,9 +15154,9 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="41">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -15165,9 +15172,9 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="41">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -15183,9 +15190,9 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="41">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -15201,9 +15208,9 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="41">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -15219,9 +15226,9 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="41">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -15237,9 +15244,9 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="41">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -15255,9 +15262,9 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="41">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -15273,9 +15280,9 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="41">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -15291,9 +15298,9 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="41">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -15309,9 +15316,9 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="41">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -15327,9 +15334,9 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="41">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -15345,9 +15352,9 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="41">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -15363,9 +15370,9 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="41">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -15381,9 +15388,9 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="41">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -15399,9 +15406,9 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="41">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -15417,9 +15424,9 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="41">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -15435,9 +15442,9 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="41">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -15453,9 +15460,9 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="41">
-        <v>46661</v>
+        <v>46631</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -15471,9 +15478,9 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="41">
-        <v>46692</v>
+        <v>46661</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -15489,9 +15496,9 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="41">
-        <v>46722</v>
+        <v>46692</v>
       </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -15507,9 +15514,9 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="41">
-        <v>46753</v>
+        <v>46722</v>
       </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -15525,9 +15532,9 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="41">
-        <v>46784</v>
+        <v>46753</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -15543,9 +15550,9 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="41">
-        <v>46813</v>
+        <v>46784</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -15561,9 +15568,9 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="41">
-        <v>46844</v>
+        <v>46813</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -15579,9 +15586,9 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="41">
-        <v>46874</v>
+        <v>46844</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -15597,9 +15604,9 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="41">
-        <v>46905</v>
+        <v>46874</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -15615,9 +15622,9 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="41">
-        <v>46935</v>
+        <v>46905</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -15633,9 +15640,9 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="41">
-        <v>46966</v>
+        <v>46935</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15651,9 +15658,9 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="41">
-        <v>46997</v>
+        <v>46966</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15669,9 +15676,9 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="41">
-        <v>47027</v>
+        <v>46997</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15687,9 +15694,9 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="41">
-        <v>47058</v>
+        <v>47027</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15705,9 +15712,9 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="41">
-        <v>47088</v>
+        <v>47058</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15723,9 +15730,9 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="41">
-        <v>47119</v>
+        <v>47088</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15741,9 +15748,9 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="41">
-        <v>47150</v>
+        <v>47119</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15759,9 +15766,9 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="41">
-        <v>47178</v>
+        <v>47150</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15777,9 +15784,9 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="41">
-        <v>47209</v>
+        <v>47178</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15795,9 +15802,9 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="41">
-        <v>47239</v>
+        <v>47209</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15813,9 +15820,9 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="41">
-        <v>47270</v>
+        <v>47239</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15831,9 +15838,9 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="41">
-        <v>47300</v>
+        <v>47270</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15849,9 +15856,9 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="41">
-        <v>47331</v>
+        <v>47300</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15867,9 +15874,9 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="41">
-        <v>47362</v>
+        <v>47331</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15885,9 +15892,9 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="41">
-        <v>47392</v>
+        <v>47362</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15903,9 +15910,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="41">
-        <v>47423</v>
+        <v>47392</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15921,9 +15928,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="41">
-        <v>47453</v>
+        <v>47423</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15939,9 +15946,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="41">
-        <v>47484</v>
+        <v>47453</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15957,9 +15964,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="41">
-        <v>47515</v>
+        <v>47484</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15975,9 +15982,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="41">
-        <v>47543</v>
+        <v>47515</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15993,9 +16000,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="41">
-        <v>47574</v>
+        <v>47543</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16011,9 +16018,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="41">
-        <v>47604</v>
+        <v>47574</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16029,9 +16036,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="41">
-        <v>47635</v>
+        <v>47604</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16047,9 +16054,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="41">
-        <v>47665</v>
+        <v>47635</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16065,9 +16072,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="41">
-        <v>47696</v>
+        <v>47665</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16083,9 +16090,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="41">
-        <v>47727</v>
+        <v>47696</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16101,9 +16108,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="41">
-        <v>47757</v>
+        <v>47727</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16119,9 +16126,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="41">
-        <v>47788</v>
+        <v>47757</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16137,9 +16144,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="41">
-        <v>47818</v>
+        <v>47788</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16155,9 +16162,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="41">
-        <v>47849</v>
+        <v>47818</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16173,9 +16180,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="41">
-        <v>47880</v>
+        <v>47849</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16191,9 +16198,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="41">
-        <v>47908</v>
+        <v>47880</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -16209,9 +16216,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="41">
-        <v>47939</v>
+        <v>47908</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16227,9 +16234,9 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="41">
-        <v>47969</v>
+        <v>47939</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16245,9 +16252,9 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="41">
-        <v>48000</v>
+        <v>47969</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -16263,9 +16270,9 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="41">
-        <v>48030</v>
+        <v>48000</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -16281,9 +16288,9 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="41">
-        <v>48061</v>
+        <v>48030</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -16299,9 +16306,9 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="41">
-        <v>48092</v>
+        <v>48061</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -16317,9 +16324,9 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="41">
-        <v>48122</v>
+        <v>48092</v>
       </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -16335,9 +16342,9 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="41">
-        <v>48153</v>
+        <v>48122</v>
       </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -16353,9 +16360,9 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="41">
-        <v>48183</v>
+        <v>48153</v>
       </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -16371,9 +16378,9 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="41">
-        <v>48214</v>
+        <v>48183</v>
       </c>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -16389,9 +16396,9 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="41">
-        <v>48245</v>
+        <v>48214</v>
       </c>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -16407,9 +16414,9 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="41">
-        <v>48274</v>
+        <v>48245</v>
       </c>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -16425,9 +16432,9 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="41">
-        <v>48305</v>
+        <v>48274</v>
       </c>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -16443,9 +16450,9 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="41">
-        <v>48335</v>
+        <v>48305</v>
       </c>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -16461,9 +16468,9 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="41">
-        <v>48366</v>
+        <v>48335</v>
       </c>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -16479,9 +16486,9 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="41">
-        <v>48396</v>
+        <v>48366</v>
       </c>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -16497,9 +16504,9 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="41">
-        <v>48427</v>
+        <v>48396</v>
       </c>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -16515,9 +16522,9 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="41">
-        <v>48458</v>
+        <v>48427</v>
       </c>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -16533,9 +16540,9 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="41">
-        <v>48488</v>
+        <v>48458</v>
       </c>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -16551,9 +16558,9 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="41">
-        <v>48519</v>
+        <v>48488</v>
       </c>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -16569,9 +16576,9 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="41">
-        <v>48549</v>
+        <v>48519</v>
       </c>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -16587,9 +16594,9 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="41">
-        <v>48580</v>
+        <v>48549</v>
       </c>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -16605,9 +16612,9 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="41">
-        <v>48611</v>
+        <v>48580</v>
       </c>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -16623,9 +16630,9 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="41">
-        <v>48639</v>
+        <v>48611</v>
       </c>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -16641,9 +16648,9 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="41">
-        <v>48670</v>
+        <v>48639</v>
       </c>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -16659,9 +16666,9 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="41">
-        <v>48700</v>
+        <v>48670</v>
       </c>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -16677,9 +16684,9 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="41">
-        <v>48731</v>
+        <v>48700</v>
       </c>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -16695,9 +16702,9 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="41">
-        <v>48761</v>
+        <v>48731</v>
       </c>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -16713,9 +16720,9 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="41">
-        <v>48792</v>
+        <v>48761</v>
       </c>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -16731,9 +16738,9 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="41">
-        <v>48823</v>
+        <v>48792</v>
       </c>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -16749,9 +16756,9 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="41">
-        <v>48853</v>
+        <v>48823</v>
       </c>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -16767,9 +16774,9 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="41">
-        <v>48884</v>
+        <v>48853</v>
       </c>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -16785,9 +16792,9 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="41">
-        <v>48914</v>
+        <v>48884</v>
       </c>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -16803,9 +16810,9 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="41">
-        <v>48945</v>
+        <v>48914</v>
       </c>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -16821,9 +16828,9 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="41">
-        <v>48976</v>
+        <v>48945</v>
       </c>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -16839,9 +16846,9 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="41">
-        <v>49004</v>
+        <v>48976</v>
       </c>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -16857,9 +16864,9 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="41">
-        <v>49035</v>
+        <v>49004</v>
       </c>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -16875,9 +16882,9 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="41">
-        <v>49065</v>
+        <v>49035</v>
       </c>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -16893,9 +16900,9 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="41">
-        <v>49096</v>
+        <v>49065</v>
       </c>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -16911,9 +16918,9 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="41">
-        <v>49126</v>
+        <v>49096</v>
       </c>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -16929,9 +16936,9 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="41">
-        <v>49157</v>
+        <v>49126</v>
       </c>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -16947,9 +16954,9 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="41">
-        <v>49188</v>
+        <v>49157</v>
       </c>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -16965,9 +16972,9 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="41">
-        <v>49218</v>
+        <v>49188</v>
       </c>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -16983,9 +16990,9 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="41">
-        <v>49249</v>
+        <v>49218</v>
       </c>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -17001,9 +17008,9 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="41">
-        <v>49279</v>
+        <v>49249</v>
       </c>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -17019,9 +17026,9 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="41">
-        <v>49310</v>
+        <v>49279</v>
       </c>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -17037,9 +17044,9 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="41">
-        <v>49341</v>
+        <v>49310</v>
       </c>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -17055,9 +17062,9 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="41">
-        <v>49369</v>
+        <v>49341</v>
       </c>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -17073,9 +17080,9 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="41">
-        <v>49400</v>
+        <v>49369</v>
       </c>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -17091,9 +17098,9 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="41">
-        <v>49430</v>
+        <v>49400</v>
       </c>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -17109,9 +17116,9 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="41">
-        <v>49461</v>
+        <v>49430</v>
       </c>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -17127,9 +17134,9 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="41">
-        <v>49491</v>
+        <v>49461</v>
       </c>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -17145,9 +17152,9 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="41">
-        <v>49522</v>
+        <v>49491</v>
       </c>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -17163,9 +17170,9 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="41">
-        <v>49553</v>
+        <v>49522</v>
       </c>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -17181,9 +17188,9 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="41">
-        <v>49583</v>
+        <v>49553</v>
       </c>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -17199,9 +17206,9 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="41">
-        <v>49614</v>
+        <v>49583</v>
       </c>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -17217,9 +17224,9 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="41">
-        <v>49644</v>
+        <v>49614</v>
       </c>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -17235,9 +17242,9 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="41">
-        <v>49675</v>
+        <v>49644</v>
       </c>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -17253,9 +17260,9 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="41">
-        <v>49706</v>
+        <v>49675</v>
       </c>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -17271,9 +17278,9 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="41">
-        <v>49735</v>
+        <v>49706</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -17289,9 +17296,9 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="41">
-        <v>49766</v>
+        <v>49735</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -17307,9 +17314,9 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="41">
-        <v>49796</v>
+        <v>49766</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -17325,9 +17332,9 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="41">
-        <v>49827</v>
+        <v>49796</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -17343,9 +17350,9 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="41">
-        <v>49857</v>
+        <v>49827</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -17361,9 +17368,9 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="41">
-        <v>49888</v>
+        <v>49857</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -17379,9 +17386,9 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="41">
-        <v>49919</v>
+        <v>49888</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -17397,9 +17404,9 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="41">
-        <v>49949</v>
+        <v>49919</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -17415,9 +17422,9 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="41">
-        <v>49980</v>
+        <v>49949</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -17433,9 +17440,9 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="41">
-        <v>50010</v>
+        <v>49980</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -17451,9 +17458,9 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="41">
-        <v>50041</v>
+        <v>50010</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -17469,9 +17476,9 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="41">
-        <v>50072</v>
+        <v>50041</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -17487,9 +17494,9 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="41">
-        <v>50100</v>
+        <v>50072</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -17505,9 +17512,9 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="41">
-        <v>50131</v>
+        <v>50100</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -17523,9 +17530,9 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="41">
-        <v>50161</v>
+        <v>50131</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -17541,9 +17548,9 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="41">
-        <v>50192</v>
+        <v>50161</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -17559,9 +17566,9 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="41">
-        <v>50222</v>
+        <v>50192</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -17577,9 +17584,9 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="41">
-        <v>50253</v>
+        <v>50222</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -17595,9 +17602,9 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="41">
-        <v>50284</v>
+        <v>50253</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -17613,9 +17620,9 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="41">
-        <v>50314</v>
+        <v>50284</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -17631,9 +17638,9 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="41">
-        <v>50345</v>
+        <v>50314</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -17649,9 +17656,9 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="41">
-        <v>50375</v>
+        <v>50345</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -17667,9 +17674,9 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="41">
-        <v>50406</v>
+        <v>50375</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -17685,9 +17692,9 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="41">
-        <v>50437</v>
+        <v>50406</v>
       </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -17703,9 +17710,9 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="41">
-        <v>50465</v>
+        <v>50437</v>
       </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -17721,9 +17728,9 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="41">
-        <v>50496</v>
+        <v>50465</v>
       </c>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -17739,9 +17746,9 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="41">
-        <v>50526</v>
+        <v>50496</v>
       </c>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -17757,9 +17764,9 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="41">
-        <v>50557</v>
+        <v>50526</v>
       </c>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -17775,9 +17782,9 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="41">
-        <v>50587</v>
+        <v>50557</v>
       </c>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -17792,6 +17799,24 @@
       <c r="I707" s="9"/>
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A708" s="41">
+        <v>50587</v>
+      </c>
+      <c r="B708" s="20"/>
+      <c r="C708" s="13"/>
+      <c r="D708" s="39"/>
+      <c r="E708" s="9"/>
+      <c r="F708" s="20"/>
+      <c r="G708" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H708" s="39"/>
+      <c r="I708" s="9"/>
+      <c r="J708" s="11"/>
+      <c r="K708" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -17808,10 +17833,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17834,28 +17859,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -17868,7 +17893,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17897,7 +17922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>35.598999999999997</v>
       </c>
@@ -17925,17 +17950,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17956,7 +17981,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -17983,7 +18008,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18009,7 +18034,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18035,7 +18060,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18061,7 +18086,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18087,7 +18112,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18113,7 +18138,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18139,7 +18164,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18165,7 +18190,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18185,7 +18210,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18205,7 +18230,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18225,7 +18250,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18246,7 +18271,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18267,7 +18292,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18288,7 +18313,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18309,7 +18334,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18330,7 +18355,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18351,7 +18376,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18372,7 +18397,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18393,7 +18418,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18414,7 +18439,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18435,7 +18460,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18456,7 +18481,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18477,7 +18502,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18498,7 +18523,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18519,7 +18544,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18540,7 +18565,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18561,7 +18586,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18582,7 +18607,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18603,7 +18628,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18624,7 +18649,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18645,7 +18670,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18654,7 +18679,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18663,7 +18688,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18672,7 +18697,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18681,7 +18706,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18690,7 +18715,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18699,7 +18724,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18708,7 +18733,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18717,7 +18742,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18726,7 +18751,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18735,7 +18760,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18744,7 +18769,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18753,7 +18778,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18762,7 +18787,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18771,7 +18796,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18780,7 +18805,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18789,7 +18814,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18798,7 +18823,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18807,7 +18832,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18816,7 +18841,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18825,7 +18850,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18834,7 +18859,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18843,7 +18868,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18852,7 +18877,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18861,7 +18886,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18870,7 +18895,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18879,7 +18904,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18888,7 +18913,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18897,7 +18922,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18906,7 +18931,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/LEPARDO, ROWENA.xlsx
+++ b/REGULAR/LEPARDO, ROWENA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB43F60B-1089-4CB1-9AED-168BD0909518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$7</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="514">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1681,7 +1680,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2362,7 +2361,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2379,25 +2378,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K708" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K708" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2704,34 +2703,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K708"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A519" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A516" activePane="bottomLeft"/>
       <selection activeCell="E10" sqref="E10"/>
-      <selection pane="bottomLeft" activeCell="B528" sqref="B528"/>
+      <selection pane="bottomLeft" activeCell="H528" sqref="H528"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2752,7 +2751,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2774,7 +2773,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2796,7 +2795,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2804,7 +2803,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2817,7 +2816,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2834,7 +2833,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2869,7 +2868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2893,7 +2892,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>61</v>
       </c>
@@ -2915,7 +2914,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36281</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>45</v>
@@ -2963,7 +2962,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>46</v>
@@ -2983,7 +2982,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36312</v>
       </c>
@@ -3007,7 +3006,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="41">
         <v>36342</v>
       </c>
@@ -3031,7 +3030,7 @@
       <c r="J15" s="12"/>
       <c r="K15" s="15"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36373</v>
       </c>
@@ -3055,7 +3054,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36404</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>499</v>
@@ -3101,7 +3100,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>36434</v>
       </c>
@@ -3125,7 +3124,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>51</v>
@@ -3147,7 +3146,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36465</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>52</v>
@@ -3193,7 +3192,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>53</v>
@@ -3215,7 +3214,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36495</v>
       </c>
@@ -3239,7 +3238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>62</v>
       </c>
@@ -3257,7 +3256,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36526</v>
       </c>
@@ -3277,7 +3276,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36557</v>
       </c>
@@ -3301,7 +3300,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>65</v>
@@ -3323,7 +3322,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36586</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>52</v>
@@ -3369,7 +3368,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>66</v>
@@ -3391,7 +3390,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36617</v>
       </c>
@@ -3415,7 +3414,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36647</v>
       </c>
@@ -3439,7 +3438,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>53</v>
@@ -3463,7 +3462,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36678</v>
       </c>
@@ -3487,7 +3486,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>50</v>
@@ -3511,7 +3510,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36708</v>
       </c>
@@ -3537,7 +3536,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36739</v>
       </c>
@@ -3563,7 +3562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36770</v>
       </c>
@@ -3585,7 +3584,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36800</v>
       </c>
@@ -3609,7 +3608,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36831</v>
       </c>
@@ -3633,7 +3632,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>80</v>
@@ -3655,7 +3654,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>36861</v>
       </c>
@@ -3679,7 +3678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>83</v>
@@ -3701,7 +3700,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="48" t="s">
         <v>84</v>
       </c>
@@ -3719,7 +3718,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36892</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>86</v>
@@ -3765,7 +3764,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>87</v>
@@ -3785,7 +3784,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>36923</v>
       </c>
@@ -3809,7 +3808,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>500</v>
@@ -3833,7 +3832,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>50</v>
@@ -3855,7 +3854,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>206</v>
@@ -3875,7 +3874,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36951</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>94</v>
@@ -3925,7 +3924,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36982</v>
       </c>
@@ -3947,7 +3946,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37012</v>
       </c>
@@ -3971,7 +3970,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>52</v>
@@ -3993,7 +3992,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>99</v>
@@ -4015,7 +4014,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>100</v>
@@ -4039,7 +4038,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37043</v>
       </c>
@@ -4059,7 +4058,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>37073</v>
       </c>
@@ -4083,7 +4082,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
@@ -4101,7 +4100,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>40756</v>
       </c>
@@ -4125,7 +4124,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37135</v>
       </c>
@@ -4149,7 +4148,7 @@
         <v>37234</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>107</v>
@@ -4173,7 +4172,7 @@
         <v>37236</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>40817</v>
       </c>
@@ -4197,7 +4196,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37196</v>
       </c>
@@ -4221,7 +4220,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>114</v>
@@ -4243,7 +4242,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37226</v>
       </c>
@@ -4267,7 +4266,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>78</v>
@@ -4287,7 +4286,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
         <v>111</v>
       </c>
@@ -4307,7 +4306,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37257</v>
       </c>
@@ -4333,7 +4332,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>112</v>
@@ -4357,7 +4356,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37288</v>
       </c>
@@ -4381,7 +4380,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37316</v>
       </c>
@@ -4405,7 +4404,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37347</v>
       </c>
@@ -4429,7 +4428,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>37377</v>
       </c>
@@ -4453,7 +4452,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>504</v>
@@ -4475,7 +4474,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37408</v>
       </c>
@@ -4495,7 +4494,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>37438</v>
       </c>
@@ -4519,7 +4518,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37469</v>
       </c>
@@ -4543,7 +4542,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37500</v>
       </c>
@@ -4569,7 +4568,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37530</v>
       </c>
@@ -4595,7 +4594,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>37561</v>
       </c>
@@ -4615,7 +4614,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37591</v>
       </c>
@@ -4641,7 +4640,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>125</v>
@@ -4663,7 +4662,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>125</v>
@@ -4685,7 +4684,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="48" t="s">
         <v>129</v>
       </c>
@@ -4703,7 +4702,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>37622</v>
       </c>
@@ -4723,7 +4722,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37653</v>
       </c>
@@ -4747,7 +4746,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20" t="s">
         <v>131</v>
@@ -4771,7 +4770,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37681</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>37958</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>141</v>
@@ -4817,7 +4816,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>52</v>
@@ -4839,7 +4838,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>505</v>
@@ -4861,7 +4860,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37712</v>
       </c>
@@ -4885,7 +4884,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37742</v>
       </c>
@@ -4909,7 +4908,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>99</v>
@@ -4931,7 +4930,7 @@
         <v>37960</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>506</v>
@@ -4953,7 +4952,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20" t="s">
         <v>507</v>
@@ -4973,7 +4972,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>137</v>
@@ -4997,7 +4996,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37773</v>
       </c>
@@ -5023,7 +5022,7 @@
         <v>37931</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37803</v>
       </c>
@@ -5047,7 +5046,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>508</v>
@@ -5069,7 +5068,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37834</v>
       </c>
@@ -5093,7 +5092,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>143</v>
@@ -5119,7 +5118,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37865</v>
       </c>
@@ -5143,7 +5142,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20" t="s">
         <v>146</v>
@@ -5165,7 +5164,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37895</v>
       </c>
@@ -5189,7 +5188,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>146</v>
@@ -5211,7 +5210,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37926</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>37966</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>125</v>
@@ -5257,7 +5256,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>151</v>
@@ -5279,7 +5278,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37956</v>
       </c>
@@ -5303,7 +5302,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>152</v>
@@ -5325,7 +5324,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="48" t="s">
         <v>154</v>
       </c>
@@ -5343,7 +5342,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>37987</v>
       </c>
@@ -5361,7 +5360,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>155</v>
@@ -5383,7 +5382,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20" t="s">
         <v>52</v>
@@ -5405,7 +5404,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>158</v>
@@ -5429,7 +5428,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="49"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>38018</v>
       </c>
@@ -5453,7 +5452,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>38047</v>
       </c>
@@ -5477,7 +5476,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>131</v>
@@ -5499,7 +5498,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>163</v>
@@ -5521,7 +5520,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38078</v>
       </c>
@@ -5547,7 +5546,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38108</v>
       </c>
@@ -5567,7 +5566,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>131</v>
@@ -5593,7 +5592,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="41">
         <v>38139</v>
       </c>
@@ -5617,7 +5616,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>169</v>
@@ -5639,7 +5638,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>38169</v>
       </c>
@@ -5663,7 +5662,7 @@
         <v>38175</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>125</v>
@@ -5685,7 +5684,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>125</v>
@@ -5707,7 +5706,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20" t="s">
         <v>125</v>
@@ -5729,7 +5728,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>171</v>
@@ -5751,7 +5750,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5771,7 +5770,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38200</v>
       </c>
@@ -5791,7 +5790,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38231</v>
       </c>
@@ -5811,7 +5810,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38261</v>
       </c>
@@ -5831,7 +5830,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="41">
         <v>38292</v>
       </c>
@@ -5857,7 +5856,7 @@
       <c r="J139" s="12"/>
       <c r="K139" s="15"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38322</v>
       </c>
@@ -5885,7 +5884,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -5903,7 +5902,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="48" t="s">
         <v>179</v>
       </c>
@@ -5921,7 +5920,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>38353</v>
       </c>
@@ -5941,7 +5940,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23">
         <v>38384</v>
       </c>
@@ -5961,7 +5960,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>38412</v>
       </c>
@@ -5981,7 +5980,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38443</v>
       </c>
@@ -6003,7 +6002,7 @@
         <v>38690</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>180</v>
@@ -6025,7 +6024,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38473</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>184</v>
@@ -6071,7 +6070,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38504</v>
       </c>
@@ -6095,7 +6094,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="41"/>
       <c r="B151" s="15" t="s">
         <v>186</v>
@@ -6121,7 +6120,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38534</v>
       </c>
@@ -6149,7 +6148,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38565</v>
       </c>
@@ -6173,7 +6172,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>191</v>
@@ -6197,7 +6196,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38596</v>
       </c>
@@ -6225,7 +6224,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>194</v>
@@ -6247,7 +6246,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -6267,7 +6266,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38626</v>
       </c>
@@ -6293,7 +6292,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38657</v>
       </c>
@@ -6319,7 +6318,7 @@
         <v>38667</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38687</v>
       </c>
@@ -6341,7 +6340,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="41"/>
       <c r="B161" s="15" t="s">
         <v>199</v>
@@ -6361,7 +6360,7 @@
       <c r="J161" s="12"/>
       <c r="K161" s="15"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>199</v>
@@ -6387,7 +6386,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23" t="s">
         <v>201</v>
       </c>
@@ -6405,7 +6404,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38718</v>
       </c>
@@ -6431,7 +6430,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>130</v>
@@ -6455,7 +6454,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38749</v>
       </c>
@@ -6477,7 +6476,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>180</v>
@@ -6499,7 +6498,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38777</v>
       </c>
@@ -6523,7 +6522,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>38808</v>
       </c>
@@ -6547,7 +6546,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20" t="s">
         <v>52</v>
@@ -6569,7 +6568,7 @@
         <v>39026</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38838</v>
       </c>
@@ -6595,7 +6594,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>38869</v>
       </c>
@@ -6621,7 +6620,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>212</v>
@@ -6643,7 +6642,7 @@
         <v>38236</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>38899</v>
       </c>
@@ -6667,7 +6666,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="41"/>
       <c r="B175" s="15" t="s">
         <v>215</v>
@@ -6693,7 +6692,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38930</v>
       </c>
@@ -6721,7 +6720,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38961</v>
       </c>
@@ -6741,7 +6740,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>38991</v>
       </c>
@@ -6761,7 +6760,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39022</v>
       </c>
@@ -6781,7 +6780,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>39052</v>
       </c>
@@ -6801,7 +6800,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="48" t="s">
         <v>220</v>
       </c>
@@ -6819,7 +6818,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39083</v>
       </c>
@@ -6841,7 +6840,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20" t="s">
         <v>125</v>
@@ -6865,7 +6864,7 @@
         <v>39387</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39114</v>
       </c>
@@ -6885,7 +6884,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13">
@@ -6907,7 +6906,7 @@
         <v>39266</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39142</v>
       </c>
@@ -6927,7 +6926,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>39173</v>
       </c>
@@ -6951,7 +6950,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>224</v>
@@ -6975,7 +6974,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39203</v>
       </c>
@@ -7001,7 +7000,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="41"/>
       <c r="B190" s="15" t="s">
         <v>226</v>
@@ -7025,7 +7024,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39234</v>
       </c>
@@ -7051,7 +7050,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39264</v>
       </c>
@@ -7073,7 +7072,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>231</v>
@@ -7093,7 +7092,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20" t="s">
         <v>232</v>
@@ -7117,7 +7116,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>39295</v>
       </c>
@@ -7141,7 +7140,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39326</v>
       </c>
@@ -7169,7 +7168,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39356</v>
       </c>
@@ -7199,7 +7198,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="41">
         <v>39387</v>
       </c>
@@ -7219,7 +7218,7 @@
       <c r="J198" s="12"/>
       <c r="K198" s="15"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20" t="s">
         <v>241</v>
@@ -7245,7 +7244,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39417</v>
       </c>
@@ -7265,7 +7264,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="48" t="s">
         <v>243</v>
       </c>
@@ -7283,7 +7282,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>39448</v>
       </c>
@@ -7303,7 +7302,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>39479</v>
       </c>
@@ -7325,7 +7324,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>244</v>
@@ -7345,7 +7344,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>245</v>
@@ -7367,7 +7366,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>39508</v>
       </c>
@@ -7391,7 +7390,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39539</v>
       </c>
@@ -7413,7 +7412,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>245</v>
@@ -7435,7 +7434,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39569</v>
       </c>
@@ -7459,7 +7458,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>251</v>
@@ -7481,7 +7480,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>39600</v>
       </c>
@@ -7505,7 +7504,7 @@
         <v>39484</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>143</v>
@@ -7527,7 +7526,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>253</v>
@@ -7551,7 +7550,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39630</v>
       </c>
@@ -7571,7 +7570,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>255</v>
@@ -7593,7 +7592,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>506</v>
@@ -7615,7 +7614,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20" t="s">
         <v>143</v>
@@ -7639,7 +7638,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>39661</v>
       </c>
@@ -7663,7 +7662,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>39692</v>
       </c>
@@ -7687,7 +7686,7 @@
         <v>39761</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="41"/>
       <c r="B220" s="15" t="s">
         <v>259</v>
@@ -7709,7 +7708,7 @@
       <c r="J220" s="12"/>
       <c r="K220" s="15"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>39722</v>
       </c>
@@ -7733,7 +7732,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20" t="s">
         <v>143</v>
@@ -7755,7 +7754,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>39753</v>
       </c>
@@ -7775,7 +7774,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39783</v>
       </c>
@@ -7799,7 +7798,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23" t="s">
         <v>263</v>
       </c>
@@ -7817,7 +7816,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>39814</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>39934</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>264</v>
@@ -7863,7 +7862,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39845</v>
       </c>
@@ -7885,7 +7884,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>39873</v>
       </c>
@@ -7907,7 +7906,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>39904</v>
       </c>
@@ -7933,7 +7932,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>39934</v>
       </c>
@@ -7953,7 +7952,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>39965</v>
       </c>
@@ -7973,7 +7972,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>39995</v>
       </c>
@@ -7997,7 +7996,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>232</v>
@@ -8021,7 +8020,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40026</v>
       </c>
@@ -8041,7 +8040,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>40057</v>
       </c>
@@ -8061,7 +8060,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>40087</v>
       </c>
@@ -8087,7 +8086,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>40118</v>
       </c>
@@ -8107,7 +8106,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>40148</v>
       </c>
@@ -8133,7 +8132,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="23" t="s">
         <v>275</v>
       </c>
@@ -8151,7 +8150,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>40179</v>
       </c>
@@ -8171,7 +8170,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>40210</v>
       </c>
@@ -8195,7 +8194,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40238</v>
       </c>
@@ -8215,7 +8214,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="41">
         <v>40269</v>
       </c>
@@ -8237,7 +8236,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>277</v>
@@ -8259,7 +8258,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>232</v>
@@ -8281,7 +8280,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>232</v>
@@ -8305,7 +8304,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40">
         <v>40299</v>
       </c>
@@ -8325,7 +8324,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>40330</v>
       </c>
@@ -8351,7 +8350,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>284</v>
@@ -8375,7 +8374,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>40360</v>
       </c>
@@ -8395,7 +8394,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>40391</v>
       </c>
@@ -8419,7 +8418,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>288</v>
@@ -8441,7 +8440,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>40422</v>
       </c>
@@ -8465,7 +8464,7 @@
         <v>40246</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>285</v>
@@ -8487,7 +8486,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>40452</v>
       </c>
@@ -8511,7 +8510,7 @@
         <v>40522</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>289</v>
@@ -8533,7 +8532,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="41">
         <v>40483</v>
       </c>
@@ -8559,7 +8558,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>248</v>
@@ -8581,7 +8580,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40513</v>
       </c>
@@ -8601,7 +8600,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="48" t="s">
         <v>292</v>
       </c>
@@ -8619,7 +8618,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40544</v>
       </c>
@@ -8643,7 +8642,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>40575</v>
       </c>
@@ -8665,7 +8664,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>294</v>
@@ -8687,7 +8686,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>40603</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>297</v>
@@ -8735,7 +8734,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>40634</v>
       </c>
@@ -8759,7 +8758,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>108</v>
@@ -8781,7 +8780,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40664</v>
       </c>
@@ -8805,7 +8804,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20"/>
       <c r="C270" s="13">
@@ -8827,7 +8826,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>40695</v>
       </c>
@@ -8847,7 +8846,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40725</v>
       </c>
@@ -8871,7 +8870,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40"/>
       <c r="B273" s="20" t="s">
         <v>248</v>
@@ -8893,7 +8892,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="41">
         <v>40756</v>
       </c>
@@ -8917,7 +8916,7 @@
       </c>
       <c r="K274" s="15"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>303</v>
@@ -8943,7 +8942,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20"/>
       <c r="C276" s="13">
@@ -8961,7 +8960,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40">
         <v>40787</v>
       </c>
@@ -8981,7 +8980,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>40817</v>
       </c>
@@ -9007,7 +9006,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>40848</v>
       </c>
@@ -9027,7 +9026,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>40878</v>
       </c>
@@ -9053,7 +9052,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="48"/>
       <c r="B281" s="20" t="s">
         <v>307</v>
@@ -9075,7 +9074,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="48" t="s">
         <v>306</v>
       </c>
@@ -9093,7 +9092,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>40909</v>
       </c>
@@ -9115,7 +9114,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>310</v>
@@ -9137,7 +9136,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="41"/>
       <c r="B285" s="15" t="s">
         <v>312</v>
@@ -9161,7 +9160,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>244</v>
@@ -9183,7 +9182,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>40940</v>
       </c>
@@ -9205,7 +9204,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>317</v>
@@ -9229,7 +9228,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>40969</v>
       </c>
@@ -9255,7 +9254,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>318</v>
@@ -9277,7 +9276,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>41000</v>
       </c>
@@ -9297,7 +9296,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>41030</v>
       </c>
@@ -9323,7 +9322,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>41061</v>
       </c>
@@ -9347,7 +9346,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>41091</v>
       </c>
@@ -9371,7 +9370,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>143</v>
@@ -9393,7 +9392,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>41122</v>
       </c>
@@ -9413,7 +9412,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>41153</v>
       </c>
@@ -9439,7 +9438,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>41183</v>
       </c>
@@ -9463,7 +9462,7 @@
         <v>41253</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>41214</v>
       </c>
@@ -9487,7 +9486,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>41244</v>
       </c>
@@ -9511,7 +9510,7 @@
         <v>41072</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>143</v>
@@ -9535,7 +9534,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="48" t="s">
         <v>328</v>
       </c>
@@ -9553,7 +9552,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>41275</v>
       </c>
@@ -9575,7 +9574,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="41"/>
       <c r="B304" s="15" t="s">
         <v>330</v>
@@ -9597,7 +9596,7 @@
       <c r="J304" s="12"/>
       <c r="K304" s="15"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40">
         <v>41306</v>
       </c>
@@ -9619,7 +9618,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>332</v>
@@ -9641,7 +9640,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>41334</v>
       </c>
@@ -9665,7 +9664,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>244</v>
@@ -9685,7 +9684,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>241</v>
@@ -9709,7 +9708,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>333</v>
@@ -9731,7 +9730,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>41365</v>
       </c>
@@ -9751,7 +9750,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>41395</v>
       </c>
@@ -9775,7 +9774,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>241</v>
@@ -9801,7 +9800,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>41426</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>241</v>
@@ -9851,7 +9850,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>231</v>
@@ -9873,7 +9872,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40"/>
       <c r="B317" s="20" t="s">
         <v>231</v>
@@ -9895,7 +9894,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40"/>
       <c r="B318" s="20" t="s">
         <v>344</v>
@@ -9919,7 +9918,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>41456</v>
       </c>
@@ -9943,7 +9942,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>41487</v>
       </c>
@@ -9967,7 +9966,7 @@
         <v>41313</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>346</v>
@@ -9989,7 +9988,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>41518</v>
       </c>
@@ -10013,7 +10012,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>41548</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>41374</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>348</v>
@@ -10059,7 +10058,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>349</v>
@@ -10081,7 +10080,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>41579</v>
       </c>
@@ -10103,7 +10102,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>351</v>
@@ -10127,7 +10126,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>41609</v>
       </c>
@@ -10151,7 +10150,7 @@
         <v>41376</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>353</v>
@@ -10175,7 +10174,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="41"/>
       <c r="B330" s="15" t="s">
         <v>354</v>
@@ -10199,7 +10198,7 @@
       <c r="J330" s="12"/>
       <c r="K330" s="15"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="48" t="s">
         <v>356</v>
       </c>
@@ -10217,7 +10216,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>41640</v>
       </c>
@@ -10239,7 +10238,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>277</v>
@@ -10261,7 +10260,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40"/>
       <c r="B334" s="20" t="s">
         <v>244</v>
@@ -10281,7 +10280,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>357</v>
@@ -10305,7 +10304,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>41671</v>
       </c>
@@ -10329,7 +10328,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40"/>
       <c r="B337" s="20" t="s">
         <v>361</v>
@@ -10351,7 +10350,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>41699</v>
       </c>
@@ -10371,7 +10370,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40"/>
       <c r="B339" s="20" t="s">
         <v>364</v>
@@ -10399,7 +10398,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>41730</v>
       </c>
@@ -10421,7 +10420,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>307</v>
@@ -10443,7 +10442,7 @@
         <v>41824</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40"/>
       <c r="B342" s="20" t="s">
         <v>366</v>
@@ -10467,7 +10466,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>41760</v>
       </c>
@@ -10491,7 +10490,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40"/>
       <c r="B344" s="20" t="s">
         <v>369</v>
@@ -10515,7 +10514,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="41"/>
       <c r="B345" s="15" t="s">
         <v>143</v>
@@ -10539,7 +10538,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>41791</v>
       </c>
@@ -10565,7 +10564,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>233</v>
@@ -10589,7 +10588,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>41821</v>
       </c>
@@ -10609,7 +10608,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>41852</v>
       </c>
@@ -10635,7 +10634,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>41883</v>
       </c>
@@ -10661,7 +10660,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>232</v>
@@ -10683,7 +10682,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>376</v>
@@ -10705,7 +10704,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>41913</v>
       </c>
@@ -10729,7 +10728,7 @@
         <v>41983</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>143</v>
@@ -10753,7 +10752,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>233</v>
@@ -10777,7 +10776,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="41"/>
       <c r="B356" s="15" t="s">
         <v>380</v>
@@ -10799,7 +10798,7 @@
       <c r="J356" s="12"/>
       <c r="K356" s="15"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>41944</v>
       </c>
@@ -10823,7 +10822,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>381</v>
@@ -10842,7 +10841,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>41974</v>
       </c>
@@ -10862,7 +10861,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40"/>
       <c r="B360" s="20" t="s">
         <v>143</v>
@@ -10882,7 +10881,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>382</v>
@@ -10908,7 +10907,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23" t="s">
         <v>385</v>
       </c>
@@ -10926,7 +10925,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>42005</v>
       </c>
@@ -10948,7 +10947,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40"/>
       <c r="B364" s="20" t="s">
         <v>386</v>
@@ -10972,7 +10971,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>42036</v>
       </c>
@@ -10994,7 +10993,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>244</v>
@@ -11012,7 +11011,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>388</v>
@@ -11036,7 +11035,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>42064</v>
       </c>
@@ -11060,7 +11059,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>391</v>
@@ -11084,7 +11083,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>42095</v>
       </c>
@@ -11108,7 +11107,7 @@
         <v>42008</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>393</v>
@@ -11130,7 +11129,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>42125</v>
       </c>
@@ -11156,7 +11155,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>143</v>
@@ -11180,7 +11179,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>396</v>
@@ -11202,7 +11201,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>42156</v>
       </c>
@@ -11228,7 +11227,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>42186</v>
       </c>
@@ -11254,7 +11253,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>233</v>
@@ -11278,7 +11277,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>143</v>
@@ -11300,7 +11299,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40"/>
       <c r="B379" s="20" t="s">
         <v>110</v>
@@ -11320,7 +11319,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>233</v>
@@ -11338,7 +11337,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40"/>
       <c r="B381" s="20" t="s">
         <v>397</v>
@@ -11360,7 +11359,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="41">
         <v>42217</v>
       </c>
@@ -11388,7 +11387,7 @@
         <v>42317</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>42248</v>
       </c>
@@ -11408,7 +11407,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40"/>
       <c r="B384" s="20" t="s">
         <v>404</v>
@@ -11430,7 +11429,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>42278</v>
       </c>
@@ -11454,7 +11453,7 @@
         <v>42348</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40"/>
       <c r="B386" s="20" t="s">
         <v>405</v>
@@ -11476,7 +11475,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>42309</v>
       </c>
@@ -11500,7 +11499,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>406</v>
@@ -11526,7 +11525,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40"/>
       <c r="B389" s="20" t="s">
         <v>407</v>
@@ -11550,7 +11549,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>42339</v>
       </c>
@@ -11576,7 +11575,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="48" t="s">
         <v>411</v>
       </c>
@@ -11594,7 +11593,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>42370</v>
       </c>
@@ -11616,7 +11615,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>390</v>
@@ -11636,7 +11635,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>244</v>
@@ -11656,7 +11655,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>412</v>
@@ -11680,7 +11679,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>42401</v>
       </c>
@@ -11704,7 +11703,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>42430</v>
       </c>
@@ -11730,7 +11729,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>42461</v>
       </c>
@@ -11754,7 +11753,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>233</v>
@@ -11778,7 +11777,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>244</v>
@@ -11798,7 +11797,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>418</v>
@@ -11820,7 +11819,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>42491</v>
       </c>
@@ -11844,7 +11843,7 @@
         <v>42375</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>422</v>
@@ -11868,7 +11867,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>42522</v>
       </c>
@@ -11896,7 +11895,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>422</v>
@@ -11916,7 +11915,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>42552</v>
       </c>
@@ -11940,7 +11939,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="41">
         <v>42583</v>
       </c>
@@ -11960,7 +11959,7 @@
       <c r="J407" s="12"/>
       <c r="K407" s="15"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>42614</v>
       </c>
@@ -11984,7 +11983,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>42644</v>
       </c>
@@ -12008,7 +12007,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>232</v>
@@ -12032,7 +12031,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>233</v>
@@ -12054,7 +12053,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40"/>
       <c r="B412" s="20" t="s">
         <v>430</v>
@@ -12076,7 +12075,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>42675</v>
       </c>
@@ -12100,7 +12099,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>42705</v>
       </c>
@@ -12126,7 +12125,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23" t="s">
         <v>433</v>
       </c>
@@ -12144,7 +12143,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>42736</v>
       </c>
@@ -12164,7 +12163,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40"/>
       <c r="B417" s="20" t="s">
         <v>434</v>
@@ -12190,7 +12189,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>42767</v>
       </c>
@@ -12214,7 +12213,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="41">
         <v>42795</v>
       </c>
@@ -12238,7 +12237,7 @@
       <c r="J419" s="12"/>
       <c r="K419" s="15"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>244</v>
@@ -12260,7 +12259,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40"/>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -12278,7 +12277,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
@@ -12296,7 +12295,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>42826</v>
       </c>
@@ -12316,7 +12315,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>42856</v>
       </c>
@@ -12340,7 +12339,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>143</v>
@@ -12364,7 +12363,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>42887</v>
       </c>
@@ -12384,7 +12383,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>42917</v>
       </c>
@@ -12410,7 +12409,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>143</v>
@@ -12432,7 +12431,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>42948</v>
       </c>
@@ -12452,7 +12451,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>42979</v>
       </c>
@@ -12472,7 +12471,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>43009</v>
       </c>
@@ -12496,7 +12495,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>143</v>
@@ -12520,7 +12519,7 @@
         <v>43049</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>39387</v>
       </c>
@@ -12540,7 +12539,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>43070</v>
       </c>
@@ -12560,7 +12559,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="53" t="s">
         <v>446</v>
       </c>
@@ -12578,7 +12577,7 @@
       <c r="J435" s="12"/>
       <c r="K435" s="15"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>43101</v>
       </c>
@@ -12602,7 +12601,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>43132</v>
       </c>
@@ -12624,7 +12623,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>43160</v>
       </c>
@@ -12650,7 +12649,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>43191</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>233</v>
@@ -12698,7 +12697,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40"/>
       <c r="B441" s="20" t="s">
         <v>244</v>
@@ -12718,7 +12717,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40"/>
       <c r="B442" s="20" t="s">
         <v>454</v>
@@ -12740,7 +12739,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>43221</v>
       </c>
@@ -12760,7 +12759,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>43252</v>
       </c>
@@ -12780,7 +12779,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>43282</v>
       </c>
@@ -12806,7 +12805,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>43313</v>
       </c>
@@ -12832,7 +12831,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>43344</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v>43290</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>43374</v>
       </c>
@@ -12878,7 +12877,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>43405</v>
       </c>
@@ -12898,7 +12897,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>43435</v>
       </c>
@@ -12924,7 +12923,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40"/>
       <c r="B451" s="20" t="s">
         <v>406</v>
@@ -12946,7 +12945,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="48" t="s">
         <v>459</v>
       </c>
@@ -12964,7 +12963,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>43466</v>
       </c>
@@ -12984,7 +12983,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>43497</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40"/>
       <c r="B455" s="20" t="s">
         <v>143</v>
@@ -13028,7 +13027,7 @@
         <v>43649</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40"/>
       <c r="B456" s="20" t="s">
         <v>244</v>
@@ -13050,7 +13049,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>43525</v>
       </c>
@@ -13070,7 +13069,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>43556</v>
       </c>
@@ -13096,7 +13095,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>462</v>
@@ -13118,7 +13117,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>43586</v>
       </c>
@@ -13138,7 +13137,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>43617</v>
       </c>
@@ -13162,7 +13161,7 @@
         <v>43530</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>454</v>
@@ -13184,7 +13183,7 @@
         <v>43564</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="41">
         <v>43647</v>
       </c>
@@ -13204,7 +13203,7 @@
       <c r="J463" s="12"/>
       <c r="K463" s="15"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>43678</v>
       </c>
@@ -13228,7 +13227,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>43709</v>
       </c>
@@ -13252,7 +13251,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>465</v>
@@ -13272,7 +13271,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>465</v>
@@ -13292,7 +13291,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>43739</v>
       </c>
@@ -13312,7 +13311,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>43770</v>
       </c>
@@ -13336,7 +13335,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20"/>
       <c r="C470" s="13">
@@ -13354,7 +13353,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>43800</v>
       </c>
@@ -13374,7 +13373,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23" t="s">
         <v>470</v>
       </c>
@@ -13392,7 +13391,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>43831</v>
       </c>
@@ -13412,7 +13411,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>43862</v>
       </c>
@@ -13436,7 +13435,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40"/>
       <c r="B475" s="20" t="s">
         <v>472</v>
@@ -13456,7 +13455,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>244</v>
@@ -13476,7 +13475,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>43891</v>
       </c>
@@ -13496,7 +13495,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="41">
         <v>43922</v>
       </c>
@@ -13516,7 +13515,7 @@
       <c r="J478" s="12"/>
       <c r="K478" s="15"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>43952</v>
       </c>
@@ -13536,7 +13535,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>43983</v>
       </c>
@@ -13556,7 +13555,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>44013</v>
       </c>
@@ -13576,7 +13575,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>44044</v>
       </c>
@@ -13596,7 +13595,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>44075</v>
       </c>
@@ -13620,7 +13619,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>44105</v>
       </c>
@@ -13640,7 +13639,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>44136</v>
       </c>
@@ -13660,7 +13659,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>44166</v>
       </c>
@@ -13686,7 +13685,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23" t="s">
         <v>480</v>
       </c>
@@ -13704,7 +13703,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>44197</v>
       </c>
@@ -13728,7 +13727,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>44228</v>
       </c>
@@ -13752,7 +13751,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>44256</v>
       </c>
@@ -13772,7 +13771,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>44287</v>
       </c>
@@ -13792,7 +13791,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="41">
         <v>44317</v>
       </c>
@@ -13812,7 +13811,7 @@
       <c r="J492" s="12"/>
       <c r="K492" s="15"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>44348</v>
       </c>
@@ -13836,7 +13835,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>44378</v>
       </c>
@@ -13860,7 +13859,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40"/>
       <c r="B495" s="20" t="s">
         <v>485</v>
@@ -13878,7 +13877,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>44409</v>
       </c>
@@ -13898,7 +13897,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>44440</v>
       </c>
@@ -13918,7 +13917,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>44470</v>
       </c>
@@ -13938,7 +13937,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>44501</v>
       </c>
@@ -13958,7 +13957,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>44531</v>
       </c>
@@ -13984,7 +13983,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>244</v>
@@ -14004,7 +14003,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="23" t="s">
         <v>490</v>
       </c>
@@ -14022,7 +14021,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>44562</v>
       </c>
@@ -14044,7 +14043,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>244</v>
@@ -14064,7 +14063,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>44593</v>
       </c>
@@ -14086,7 +14085,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>44621</v>
       </c>
@@ -14106,7 +14105,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="41">
         <v>44652</v>
       </c>
@@ -14126,7 +14125,7 @@
       <c r="J507" s="12"/>
       <c r="K507" s="15"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>44682</v>
       </c>
@@ -14148,7 +14147,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>485</v>
@@ -14170,7 +14169,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>44713</v>
       </c>
@@ -14190,7 +14189,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>44743</v>
       </c>
@@ -14216,7 +14215,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>495</v>
@@ -14236,7 +14235,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>44774</v>
       </c>
@@ -14256,7 +14255,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>44805</v>
       </c>
@@ -14276,7 +14275,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>44835</v>
       </c>
@@ -14296,7 +14295,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>44866</v>
       </c>
@@ -14316,7 +14315,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>44896</v>
       </c>
@@ -14342,7 +14341,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="48" t="s">
         <v>510</v>
       </c>
@@ -14360,7 +14359,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>44927</v>
       </c>
@@ -14384,7 +14383,7 @@
         <v>44931</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="41">
         <v>44958</v>
       </c>
@@ -14408,7 +14407,7 @@
         <v>44963</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="41">
         <v>44986</v>
       </c>
@@ -14432,7 +14431,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="41"/>
       <c r="B522" s="20" t="s">
         <v>512</v>
@@ -14452,7 +14451,7 @@
         <v>44991</v>
       </c>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="41">
         <v>45017</v>
       </c>
@@ -14472,7 +14471,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="41">
         <v>45047</v>
       </c>
@@ -14496,7 +14495,7 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="41"/>
       <c r="B525" s="20" t="s">
         <v>512</v>
@@ -14516,7 +14515,7 @@
         <v>45085</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="41">
         <v>45078</v>
       </c>
@@ -14540,7 +14539,7 @@
         <v>45091</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="41"/>
       <c r="B527" s="20" t="s">
         <v>206</v>
@@ -14560,11 +14559,13 @@
         <v>45117</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="41">
         <v>45108</v>
       </c>
-      <c r="B528" s="20"/>
+      <c r="B528" s="20" t="s">
+        <v>206</v>
+      </c>
       <c r="C528" s="13"/>
       <c r="D528" s="39"/>
       <c r="E528" s="9"/>
@@ -14576,9 +14577,11 @@
       <c r="H528" s="39"/>
       <c r="I528" s="9"/>
       <c r="J528" s="11"/>
-      <c r="K528" s="20"/>
-    </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K528" s="50">
+        <v>45125</v>
+      </c>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="41">
         <v>45139</v>
       </c>
@@ -14596,7 +14599,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="41">
         <v>45170</v>
       </c>
@@ -14614,7 +14617,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="41">
         <v>45200</v>
       </c>
@@ -14632,7 +14635,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="41">
         <v>45231</v>
       </c>
@@ -14650,7 +14653,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="41">
         <v>45261</v>
       </c>
@@ -14668,7 +14671,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="41">
         <v>45292</v>
       </c>
@@ -14686,7 +14689,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="41">
         <v>45323</v>
       </c>
@@ -14704,7 +14707,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="41">
         <v>45352</v>
       </c>
@@ -14722,7 +14725,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="41">
         <v>45383</v>
       </c>
@@ -14740,7 +14743,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="41">
         <v>45413</v>
       </c>
@@ -14758,7 +14761,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="41">
         <v>45444</v>
       </c>
@@ -14776,7 +14779,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="41">
         <v>45474</v>
       </c>
@@ -14794,7 +14797,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="41">
         <v>45505</v>
       </c>
@@ -14812,7 +14815,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="41">
         <v>45536</v>
       </c>
@@ -14830,7 +14833,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="41">
         <v>45566</v>
       </c>
@@ -14848,7 +14851,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="41">
         <v>45597</v>
       </c>
@@ -14866,7 +14869,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="41">
         <v>45627</v>
       </c>
@@ -14884,7 +14887,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="41">
         <v>45658</v>
       </c>
@@ -14902,7 +14905,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="41">
         <v>45689</v>
       </c>
@@ -14920,7 +14923,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="41">
         <v>45717</v>
       </c>
@@ -14938,7 +14941,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="41">
         <v>45748</v>
       </c>
@@ -14956,7 +14959,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="41">
         <v>45778</v>
       </c>
@@ -14974,7 +14977,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="41">
         <v>45809</v>
       </c>
@@ -14992,7 +14995,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="41">
         <v>45839</v>
       </c>
@@ -15010,7 +15013,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="41">
         <v>45870</v>
       </c>
@@ -15028,7 +15031,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="41">
         <v>45901</v>
       </c>
@@ -15046,7 +15049,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="41">
         <v>45931</v>
       </c>
@@ -15064,7 +15067,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="41">
         <v>45962</v>
       </c>
@@ -15082,7 +15085,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="41">
         <v>45992</v>
       </c>
@@ -15100,7 +15103,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="41">
         <v>46023</v>
       </c>
@@ -15118,7 +15121,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="41">
         <v>46054</v>
       </c>
@@ -15136,7 +15139,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="41">
         <v>46082</v>
       </c>
@@ -15154,7 +15157,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="41">
         <v>46113</v>
       </c>
@@ -15172,7 +15175,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="41">
         <v>46143</v>
       </c>
@@ -15190,7 +15193,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="41">
         <v>46174</v>
       </c>
@@ -15208,7 +15211,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="41">
         <v>46204</v>
       </c>
@@ -15226,7 +15229,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="41">
         <v>46235</v>
       </c>
@@ -15244,7 +15247,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="41">
         <v>46266</v>
       </c>
@@ -15262,7 +15265,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="41">
         <v>46296</v>
       </c>
@@ -15280,7 +15283,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="41">
         <v>46327</v>
       </c>
@@ -15298,7 +15301,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="41">
         <v>46357</v>
       </c>
@@ -15316,7 +15319,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="41">
         <v>46388</v>
       </c>
@@ -15334,7 +15337,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="41">
         <v>46419</v>
       </c>
@@ -15352,7 +15355,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="41">
         <v>46447</v>
       </c>
@@ -15370,7 +15373,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="41">
         <v>46478</v>
       </c>
@@ -15388,7 +15391,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="41">
         <v>46508</v>
       </c>
@@ -15406,7 +15409,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="41">
         <v>46539</v>
       </c>
@@ -15424,7 +15427,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="41">
         <v>46569</v>
       </c>
@@ -15442,7 +15445,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="41">
         <v>46600</v>
       </c>
@@ -15460,7 +15463,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="41">
         <v>46631</v>
       </c>
@@ -15478,7 +15481,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="41">
         <v>46661</v>
       </c>
@@ -15496,7 +15499,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="41">
         <v>46692</v>
       </c>
@@ -15514,7 +15517,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="41">
         <v>46722</v>
       </c>
@@ -15532,7 +15535,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="41">
         <v>46753</v>
       </c>
@@ -15550,7 +15553,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="41">
         <v>46784</v>
       </c>
@@ -15568,7 +15571,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="41">
         <v>46813</v>
       </c>
@@ -15586,7 +15589,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="41">
         <v>46844</v>
       </c>
@@ -15604,7 +15607,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="41">
         <v>46874</v>
       </c>
@@ -15622,7 +15625,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="41">
         <v>46905</v>
       </c>
@@ -15640,7 +15643,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="41">
         <v>46935</v>
       </c>
@@ -15658,7 +15661,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="41">
         <v>46966</v>
       </c>
@@ -15676,7 +15679,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="41">
         <v>46997</v>
       </c>
@@ -15694,7 +15697,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="41">
         <v>47027</v>
       </c>
@@ -15712,7 +15715,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="41">
         <v>47058</v>
       </c>
@@ -15730,7 +15733,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="41">
         <v>47088</v>
       </c>
@@ -15748,7 +15751,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="41">
         <v>47119</v>
       </c>
@@ -15766,7 +15769,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="41">
         <v>47150</v>
       </c>
@@ -15784,7 +15787,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="41">
         <v>47178</v>
       </c>
@@ -15802,7 +15805,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="41">
         <v>47209</v>
       </c>
@@ -15820,7 +15823,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="41">
         <v>47239</v>
       </c>
@@ -15838,7 +15841,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="41">
         <v>47270</v>
       </c>
@@ -15856,7 +15859,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="41">
         <v>47300</v>
       </c>
@@ -15874,7 +15877,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="41">
         <v>47331</v>
       </c>
@@ -15892,7 +15895,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="41">
         <v>47362</v>
       </c>
@@ -15910,7 +15913,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="41">
         <v>47392</v>
       </c>
@@ -15928,7 +15931,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="41">
         <v>47423</v>
       </c>
@@ -15946,7 +15949,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="41">
         <v>47453</v>
       </c>
@@ -15964,7 +15967,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="41">
         <v>47484</v>
       </c>
@@ -15982,7 +15985,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="41">
         <v>47515</v>
       </c>
@@ -16000,7 +16003,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="41">
         <v>47543</v>
       </c>
@@ -16018,7 +16021,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="41">
         <v>47574</v>
       </c>
@@ -16036,7 +16039,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="41">
         <v>47604</v>
       </c>
@@ -16054,7 +16057,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="41">
         <v>47635</v>
       </c>
@@ -16072,7 +16075,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="41">
         <v>47665</v>
       </c>
@@ -16090,7 +16093,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="41">
         <v>47696</v>
       </c>
@@ -16108,7 +16111,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="41">
         <v>47727</v>
       </c>
@@ -16126,7 +16129,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="41">
         <v>47757</v>
       </c>
@@ -16144,7 +16147,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="41">
         <v>47788</v>
       </c>
@@ -16162,7 +16165,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="41">
         <v>47818</v>
       </c>
@@ -16180,7 +16183,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="41">
         <v>47849</v>
       </c>
@@ -16198,7 +16201,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="41">
         <v>47880</v>
       </c>
@@ -16216,7 +16219,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="41">
         <v>47908</v>
       </c>
@@ -16234,7 +16237,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="41">
         <v>47939</v>
       </c>
@@ -16252,7 +16255,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="41">
         <v>47969</v>
       </c>
@@ -16270,7 +16273,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="41">
         <v>48000</v>
       </c>
@@ -16288,7 +16291,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="41">
         <v>48030</v>
       </c>
@@ -16306,7 +16309,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="41">
         <v>48061</v>
       </c>
@@ -16324,7 +16327,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="41">
         <v>48092</v>
       </c>
@@ -16342,7 +16345,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="41">
         <v>48122</v>
       </c>
@@ -16360,7 +16363,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="41">
         <v>48153</v>
       </c>
@@ -16378,7 +16381,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="41">
         <v>48183</v>
       </c>
@@ -16396,7 +16399,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="41">
         <v>48214</v>
       </c>
@@ -16414,7 +16417,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="41">
         <v>48245</v>
       </c>
@@ -16432,7 +16435,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="41">
         <v>48274</v>
       </c>
@@ -16450,7 +16453,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="41">
         <v>48305</v>
       </c>
@@ -16468,7 +16471,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="41">
         <v>48335</v>
       </c>
@@ -16486,7 +16489,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="41">
         <v>48366</v>
       </c>
@@ -16504,7 +16507,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="41">
         <v>48396</v>
       </c>
@@ -16522,7 +16525,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="41">
         <v>48427</v>
       </c>
@@ -16540,7 +16543,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="41">
         <v>48458</v>
       </c>
@@ -16558,7 +16561,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="41">
         <v>48488</v>
       </c>
@@ -16576,7 +16579,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="41">
         <v>48519</v>
       </c>
@@ -16594,7 +16597,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="41">
         <v>48549</v>
       </c>
@@ -16612,7 +16615,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="41">
         <v>48580</v>
       </c>
@@ -16630,7 +16633,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="41">
         <v>48611</v>
       </c>
@@ -16648,7 +16651,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="41">
         <v>48639</v>
       </c>
@@ -16666,7 +16669,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="41">
         <v>48670</v>
       </c>
@@ -16684,7 +16687,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="41">
         <v>48700</v>
       </c>
@@ -16702,7 +16705,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="41">
         <v>48731</v>
       </c>
@@ -16720,7 +16723,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="41">
         <v>48761</v>
       </c>
@@ -16738,7 +16741,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="41">
         <v>48792</v>
       </c>
@@ -16756,7 +16759,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="41">
         <v>48823</v>
       </c>
@@ -16774,7 +16777,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="41">
         <v>48853</v>
       </c>
@@ -16792,7 +16795,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="41">
         <v>48884</v>
       </c>
@@ -16810,7 +16813,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="41">
         <v>48914</v>
       </c>
@@ -16828,7 +16831,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="41">
         <v>48945</v>
       </c>
@@ -16846,7 +16849,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="41">
         <v>48976</v>
       </c>
@@ -16864,7 +16867,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="41">
         <v>49004</v>
       </c>
@@ -16882,7 +16885,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="41">
         <v>49035</v>
       </c>
@@ -16900,7 +16903,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="41">
         <v>49065</v>
       </c>
@@ -16918,7 +16921,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="41">
         <v>49096</v>
       </c>
@@ -16936,7 +16939,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="41">
         <v>49126</v>
       </c>
@@ -16954,7 +16957,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="41">
         <v>49157</v>
       </c>
@@ -16972,7 +16975,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="41">
         <v>49188</v>
       </c>
@@ -16990,7 +16993,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="41">
         <v>49218</v>
       </c>
@@ -17008,7 +17011,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="41">
         <v>49249</v>
       </c>
@@ -17026,7 +17029,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="41">
         <v>49279</v>
       </c>
@@ -17044,7 +17047,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="41">
         <v>49310</v>
       </c>
@@ -17062,7 +17065,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="41">
         <v>49341</v>
       </c>
@@ -17080,7 +17083,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="41">
         <v>49369</v>
       </c>
@@ -17098,7 +17101,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="41">
         <v>49400</v>
       </c>
@@ -17116,7 +17119,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="41">
         <v>49430</v>
       </c>
@@ -17134,7 +17137,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="41">
         <v>49461</v>
       </c>
@@ -17152,7 +17155,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="41">
         <v>49491</v>
       </c>
@@ -17170,7 +17173,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="41">
         <v>49522</v>
       </c>
@@ -17188,7 +17191,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="41">
         <v>49553</v>
       </c>
@@ -17206,7 +17209,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="41">
         <v>49583</v>
       </c>
@@ -17224,7 +17227,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="41">
         <v>49614</v>
       </c>
@@ -17242,7 +17245,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="41">
         <v>49644</v>
       </c>
@@ -17260,7 +17263,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="41">
         <v>49675</v>
       </c>
@@ -17278,7 +17281,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="41">
         <v>49706</v>
       </c>
@@ -17296,7 +17299,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="41">
         <v>49735</v>
       </c>
@@ -17314,7 +17317,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="41">
         <v>49766</v>
       </c>
@@ -17332,7 +17335,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="41">
         <v>49796</v>
       </c>
@@ -17350,7 +17353,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="41">
         <v>49827</v>
       </c>
@@ -17368,7 +17371,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="41">
         <v>49857</v>
       </c>
@@ -17386,7 +17389,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="41">
         <v>49888</v>
       </c>
@@ -17404,7 +17407,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="41">
         <v>49919</v>
       </c>
@@ -17422,7 +17425,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="41">
         <v>49949</v>
       </c>
@@ -17440,7 +17443,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="41">
         <v>49980</v>
       </c>
@@ -17458,7 +17461,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="41">
         <v>50010</v>
       </c>
@@ -17476,7 +17479,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="41">
         <v>50041</v>
       </c>
@@ -17494,7 +17497,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="41">
         <v>50072</v>
       </c>
@@ -17512,7 +17515,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="41">
         <v>50100</v>
       </c>
@@ -17530,7 +17533,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="41">
         <v>50131</v>
       </c>
@@ -17548,7 +17551,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="41">
         <v>50161</v>
       </c>
@@ -17566,7 +17569,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="41">
         <v>50192</v>
       </c>
@@ -17584,7 +17587,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="41">
         <v>50222</v>
       </c>
@@ -17602,7 +17605,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="41">
         <v>50253</v>
       </c>
@@ -17620,7 +17623,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="41">
         <v>50284</v>
       </c>
@@ -17638,7 +17641,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="41">
         <v>50314</v>
       </c>
@@ -17656,7 +17659,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="41">
         <v>50345</v>
       </c>
@@ -17674,7 +17677,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="41">
         <v>50375</v>
       </c>
@@ -17692,7 +17695,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="41">
         <v>50406</v>
       </c>
@@ -17710,7 +17713,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="41">
         <v>50437</v>
       </c>
@@ -17728,7 +17731,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="41">
         <v>50465</v>
       </c>
@@ -17746,7 +17749,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="41">
         <v>50496</v>
       </c>
@@ -17764,7 +17767,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="41">
         <v>50526</v>
       </c>
@@ -17782,7 +17785,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="41">
         <v>50557</v>
       </c>
@@ -17800,7 +17803,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="41">
         <v>50587</v>
       </c>
@@ -17833,10 +17836,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17859,28 +17862,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -17893,7 +17896,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -17922,7 +17925,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>35.598999999999997</v>
       </c>
@@ -17950,17 +17953,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -17981,7 +17984,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18008,7 +18011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18034,7 +18037,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18060,7 +18063,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18086,7 +18089,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18112,7 +18115,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18138,7 +18141,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18164,7 +18167,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18190,7 +18193,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18210,7 +18213,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -18230,7 +18233,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -18250,7 +18253,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -18271,7 +18274,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -18292,7 +18295,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -18313,7 +18316,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -18334,7 +18337,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -18355,7 +18358,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -18376,7 +18379,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -18397,7 +18400,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -18418,7 +18421,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -18439,7 +18442,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -18460,7 +18463,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -18481,7 +18484,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -18502,7 +18505,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -18523,7 +18526,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -18544,7 +18547,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -18565,7 +18568,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -18586,7 +18589,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -18607,7 +18610,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -18628,7 +18631,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -18649,7 +18652,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -18670,7 +18673,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -18679,7 +18682,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -18688,7 +18691,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -18697,7 +18700,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -18706,7 +18709,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -18715,7 +18718,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -18724,7 +18727,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -18733,7 +18736,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -18742,7 +18745,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -18751,7 +18754,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -18760,7 +18763,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -18769,7 +18772,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -18778,7 +18781,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -18787,7 +18790,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -18796,7 +18799,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -18805,7 +18808,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -18814,7 +18817,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -18823,7 +18826,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -18832,7 +18835,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -18841,7 +18844,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -18850,7 +18853,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -18859,7 +18862,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -18868,7 +18871,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -18877,7 +18880,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -18886,7 +18889,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -18895,7 +18898,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -18904,7 +18907,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -18913,7 +18916,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -18922,7 +18925,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -18931,7 +18934,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
